--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F71354-09E7-4A64-A91C-8D0AD23441F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8457AE-2535-4591-BDD9-2A119DCF8473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="405" windowWidth="22140" windowHeight="14805" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
+    <workbookView xWindow="1050" yWindow="720" windowWidth="22200" windowHeight="14535" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="184">
   <si>
     <t>Indication</t>
   </si>
@@ -620,13 +620,16 @@
   </si>
   <si>
     <t>capture</t>
+  </si>
+  <si>
+    <t>Key Drugs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -656,6 +659,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -769,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -796,7 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,6 +832,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1282,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C84D59-1CB2-4A24-A9E5-2B8BEE45A87C}">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1328,19 +1343,19 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="2">
         <v>38359</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="19"/>
       <c r="K3" t="s">
         <v>5</v>
       </c>
@@ -1352,19 +1367,19 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2">
         <v>38896</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="19"/>
       <c r="K4" t="s">
         <v>6</v>
       </c>
@@ -1374,19 +1389,19 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2">
         <v>41313</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="19"/>
       <c r="K5" t="s">
         <v>7</v>
       </c>
@@ -1399,19 +1414,19 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="2">
         <v>38713</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="19"/>
       <c r="K6" t="s">
         <v>8</v>
       </c>
@@ -1424,19 +1439,19 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="2">
+      <c r="C7" s="18"/>
+      <c r="D7" s="36">
         <v>45561</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="19"/>
       <c r="K7" t="s">
         <v>9</v>
       </c>
@@ -1446,85 +1461,85 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="2">
+      <c r="C8" s="18"/>
+      <c r="D8" s="36">
         <v>44258</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="2">
+      <c r="C9" s="18"/>
+      <c r="D9" s="36">
         <v>43915</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
       <c r="K9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="2">
+      <c r="C10" s="18"/>
+      <c r="D10" s="36">
         <v>44679</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="19"/>
       <c r="K10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="2">
+      <c r="C11" s="18"/>
+      <c r="D11" s="36">
         <v>44638</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="2">
         <v>38709</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
@@ -1536,69 +1551,84 @@
       <c r="D13" s="2">
         <v>41271</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="K13" s="38" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="36">
         <v>44232</v>
       </c>
       <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="K14" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="36">
         <v>44813</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="36">
         <v>43777</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="H16" s="19"/>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="36">
         <v>44907</v>
       </c>
       <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="19"/>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>120</v>
       </c>
@@ -1608,32 +1638,38 @@
       <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
+      <c r="H18" s="19"/>
+      <c r="K18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="36">
         <v>45758</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
+      <c r="H19" s="19"/>
+      <c r="K19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="34" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="18">
+      <c r="D20" s="37">
         <v>45456</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -1643,9 +1679,12 @@
       <c r="G20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="25"/>
+      <c r="K20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="13" t="s">
@@ -1655,69 +1694,81 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>177</v>
       </c>
       <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="21" t="s">
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="20" t="s">
         <v>178</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>71</v>
       </c>
       <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
+      <c r="K23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="20" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>69</v>
       </c>
       <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>69</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C26" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F26" t="s">
@@ -1725,14 +1776,14 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F27" t="s">
@@ -1740,26 +1791,26 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E29" t="s">
@@ -1767,41 +1818,41 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C30" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>77</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>77</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>77</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -1865,297 +1916,299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C781408B-354D-406F-81C7-71B6E19A8D24}">
   <dimension ref="A1:DZ101"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z53" sqref="Z53"/>
+      <selection pane="bottomRight" activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="29" customWidth="1"/>
-    <col min="3" max="6" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="29"/>
-    <col min="12" max="13" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="130" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="131" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="4.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="28" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="28"/>
+    <col min="12" max="13" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="130" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="131" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="G1" s="30">
+      <c r="C1" s="29"/>
+      <c r="G1" s="29">
         <v>45747</v>
       </c>
-      <c r="H1" s="30">
+      <c r="H1" s="29">
         <v>45863</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30">
+      <c r="N1" s="29"/>
+      <c r="O1" s="29">
         <v>45291</v>
       </c>
-      <c r="P1" s="30">
+      <c r="P1" s="29">
         <v>45657</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="30">
         <v>2020</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="30">
         <f>L2+1</f>
         <v>2021</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="30">
         <f>M2+1</f>
         <v>2022</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="30">
         <f>N2+1</f>
         <v>2023</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="30">
         <f t="shared" ref="P2:V2" si="0">O2+1</f>
         <v>2024</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="Q2" s="30">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="R2" s="31">
+      <c r="R2" s="30">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="S2" s="31">
+      <c r="S2" s="30">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="T2" s="31">
+      <c r="T2" s="30">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="30">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="V2" s="31">
+      <c r="V2" s="30">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="29">
+      <c r="N3" s="30"/>
+      <c r="O3" s="28">
         <v>31210</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>34105</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="29">
+      <c r="N4" s="30"/>
+      <c r="O4" s="28">
         <v>13097</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="28">
         <v>13199</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="29">
+      <c r="N5" s="30"/>
+      <c r="O5" s="28">
         <v>699</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="28">
         <v>996</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>2265</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <f t="shared" ref="H7:J7" si="1">G7*1.01</f>
         <v>2287.65</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <f t="shared" si="1"/>
         <v>2310.5264999999999</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <f t="shared" si="1"/>
         <v>2333.6317650000001</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="28">
         <v>6992</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="28">
         <v>7523</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="28">
         <v>8249</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="28">
         <v>9009</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="28">
         <v>9304</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="28">
         <f t="shared" ref="Q7:Q19" si="2">SUM(G7:J7)</f>
         <v>9196.8082649999997</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="28">
         <f>Q7*1.03</f>
         <v>9472.71251295</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="28">
         <f>R7*1.03</f>
         <v>9756.8938883384999</v>
       </c>
-      <c r="T7" s="29">
-        <v>0</v>
-      </c>
-      <c r="U7" s="29">
-        <v>0</v>
-      </c>
-      <c r="V7" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
+      <c r="T7" s="28">
+        <f>S7*0.5</f>
+        <v>4878.4469441692499</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>770</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <f>G8*1.15</f>
         <v>885.49999999999989</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <f t="shared" ref="I8:J8" si="3">H8*1.15</f>
         <v>1018.3249999999998</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <f t="shared" si="3"/>
         <v>1171.0737499999998</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="28">
         <v>3157</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="28">
         <v>3306</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="28">
         <v>3464</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="28">
         <v>3601</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="28">
         <v>3682</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="28">
         <f t="shared" si="2"/>
         <v>3844.8987499999994</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="28">
         <f>Q8*0.9</f>
         <v>3460.4088749999996</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="28">
         <f t="shared" ref="S8:V8" si="4">R8*0.9</f>
         <v>3114.3679874999998</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="28">
         <f t="shared" si="4"/>
         <v>2802.9311887499998</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="28">
         <f t="shared" si="4"/>
         <v>2522.6380698749999</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="28">
         <f t="shared" si="4"/>
         <v>2270.3742628875002</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="1" t="s">
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="1"/>
@@ -2198,29 +2251,30 @@
         <v>2610.5832479999999</v>
       </c>
       <c r="R9" s="1">
-        <f>Q9*1.05</f>
-        <v>2741.1124104</v>
+        <f>Q9*1.03</f>
+        <v>2688.9007454399998</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" ref="S9:V10" si="6">R9*1.05</f>
-        <v>2878.1680309200001</v>
+        <f t="shared" ref="S9:V9" si="6">R9*1.03</f>
+        <v>2769.5677678031998</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="6"/>
-        <v>3022.0764324660004</v>
+        <v>2852.6548008372961</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="6"/>
-        <v>3173.1802540893004</v>
+        <v>2938.2344448624149</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="6"/>
-        <v>3331.8392667937655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="1" t="s">
+        <v>3026.3814782082873</v>
+      </c>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="1"/>
@@ -2249,7 +2303,7 @@
       <c r="M10" s="1">
         <v>551</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <v>717</v>
       </c>
       <c r="O10" s="1">
@@ -2263,29 +2317,30 @@
         <v>1999.7737059999999</v>
       </c>
       <c r="R10" s="1">
-        <f>Q10*1.05</f>
-        <v>2099.7623913000002</v>
+        <f>Q10*1.09</f>
+        <v>2179.7533395400001</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="6"/>
-        <v>2204.7505108650003</v>
+        <f t="shared" ref="S10:V10" si="7">R10*1.09</f>
+        <v>2375.9311400986003</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="6"/>
-        <v>2314.9880364082505</v>
+        <f t="shared" si="7"/>
+        <v>2589.7649427074743</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="6"/>
-        <v>2430.737438228663</v>
+        <f t="shared" si="7"/>
+        <v>2822.8437875511472</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="6"/>
-        <v>2552.2743101400961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="1" t="s">
+        <f t="shared" si="7"/>
+        <v>3076.8997284307507</v>
+      </c>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="1"/>
@@ -2300,17 +2355,17 @@
         <v>264.60000000000002</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:J11" si="7">H11*1.05</f>
+        <f t="shared" ref="I11:J11" si="8">H11*1.05</f>
         <v>277.83000000000004</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>291.72150000000005</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <v>252</v>
       </c>
       <c r="O11" s="1">
@@ -2324,29 +2379,30 @@
         <v>1086.1515000000002</v>
       </c>
       <c r="R11" s="1">
-        <f>Q11*1.05</f>
-        <v>1140.4590750000002</v>
+        <f>Q11*1.13</f>
+        <v>1227.3511950000002</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" ref="S11:V11" si="8">R11*1.05</f>
-        <v>1197.4820287500004</v>
+        <f t="shared" ref="S11:V11" si="9">R11*1.13</f>
+        <v>1386.90685035</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="8"/>
-        <v>1257.3561301875004</v>
+        <f t="shared" si="9"/>
+        <v>1567.2047408955</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="8"/>
-        <v>1320.2239366968754</v>
+        <f t="shared" si="9"/>
+        <v>1770.9413572119149</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="8"/>
-        <v>1386.2351335317192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="1" t="s">
+        <f t="shared" si="9"/>
+        <v>2001.1637336494637</v>
+      </c>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="1"/>
@@ -2373,7 +2429,7 @@
       <c r="M12" s="1">
         <v>87</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="35">
         <v>182</v>
       </c>
       <c r="O12" s="1">
@@ -2387,29 +2443,30 @@
         <v>1100.293901</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" ref="R12" si="9">Q12*1.03</f>
-        <v>1133.3027180300001</v>
+        <f>Q12*1.09</f>
+        <v>1199.3203520900001</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" ref="S12:V12" si="10">R12*1.03</f>
-        <v>1167.3017995709001</v>
+        <f t="shared" ref="S12:V12" si="10">R12*1.09</f>
+        <v>1307.2591837781004</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="10"/>
-        <v>1202.3208535580272</v>
+        <v>1424.9125103181295</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="10"/>
-        <v>1238.3904791647681</v>
+        <v>1553.1546362467614</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="10"/>
-        <v>1275.5421935397112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="1" t="s">
+        <v>1692.93855350897</v>
+      </c>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="1"/>
@@ -2434,7 +2491,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="36">
+      <c r="N13" s="35">
         <v>24</v>
       </c>
       <c r="O13" s="1">
@@ -2448,29 +2505,30 @@
         <v>853.51199999999994</v>
       </c>
       <c r="R13" s="1">
-        <f>Q13*1.1</f>
-        <v>938.86320000000001</v>
+        <f>Q13*1.15</f>
+        <v>981.53879999999981</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" ref="S13:V13" si="12">R13*1.1</f>
-        <v>1032.7495200000001</v>
+        <f t="shared" ref="S13:V13" si="12">R13*1.15</f>
+        <v>1128.7696199999998</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="12"/>
-        <v>1136.0244720000003</v>
+        <v>1298.0850629999998</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="12"/>
-        <v>1249.6269192000004</v>
+        <v>1492.7978224499996</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="12"/>
-        <v>1374.5896111200007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="1" t="s">
+        <v>1716.7174958174994</v>
+      </c>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="1"/>
@@ -2513,85 +2571,87 @@
         <v>662.00900000000001</v>
       </c>
       <c r="R14" s="1">
-        <f>Q14*1.1</f>
-        <v>728.20990000000006</v>
+        <f>Q14*1.2</f>
+        <v>794.41079999999999</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" ref="S14:V14" si="14">R14*1.1</f>
-        <v>801.03089000000011</v>
+        <f t="shared" ref="S14:V14" si="14">R14*1.2</f>
+        <v>953.29295999999999</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="14"/>
-        <v>881.13397900000018</v>
+        <v>1143.951552</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="14"/>
-        <v>969.24737690000029</v>
+        <v>1372.7418623999999</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="14"/>
-        <v>1066.1721145900003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
+        <v>1647.2902348799998</v>
+      </c>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>103</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <f>G15*1.01</f>
         <v>104.03</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <f>H15*1.01</f>
         <v>105.0703</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="28">
         <f>I15*1.01</f>
         <v>106.121003</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="28">
         <v>164</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <v>388</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="28">
         <v>472</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="28">
         <v>406</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="28">
         <f t="shared" si="2"/>
         <v>418.22130300000003</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="28">
         <f>Q15*1.03</f>
         <v>430.76794209000002</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="28">
         <f t="shared" ref="S15:V15" si="15">R15*1.03</f>
         <v>443.69098035270002</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="28">
         <f t="shared" si="15"/>
         <v>457.00170976328104</v>
       </c>
-      <c r="U15" s="29">
+      <c r="U15" s="28">
         <f t="shared" si="15"/>
         <v>470.71176105617951</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="28">
         <f t="shared" si="15"/>
         <v>484.8331138878649</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="1" t="s">
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C16" s="1"/>
@@ -2613,7 +2673,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="36">
+      <c r="N16" s="35">
         <v>8</v>
       </c>
       <c r="O16" s="1">
@@ -2627,77 +2687,79 @@
         <v>355</v>
       </c>
       <c r="R16" s="1">
-        <f>Q16*1.2</f>
-        <v>426</v>
+        <f>Q16*1.5</f>
+        <v>532.5</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" ref="S16:V16" si="16">R16*1.2</f>
-        <v>511.2</v>
+        <f>R16*1.5</f>
+        <v>798.75</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="16"/>
-        <v>613.43999999999994</v>
+        <f>S16*1.5</f>
+        <v>1198.125</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="16"/>
-        <v>736.12799999999993</v>
+        <f>T16*1.5</f>
+        <v>1797.1875</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="16"/>
-        <v>883.35359999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+        <f t="shared" ref="S16:V16" si="16">U16*1.2</f>
+        <v>2156.625</v>
+      </c>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>48</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>70</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>70</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <v>70</v>
       </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31">
-        <v>0</v>
-      </c>
-      <c r="P17" s="31">
+      <c r="N17" s="30"/>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30">
         <v>126</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="28">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="R17" s="29">
-        <f>Q17*1.4</f>
-        <v>361.2</v>
-      </c>
-      <c r="S17" s="29">
-        <f t="shared" ref="S17:V17" si="17">R17*1.4</f>
-        <v>505.67999999999995</v>
-      </c>
-      <c r="T17" s="29">
+      <c r="R17" s="28">
+        <f>Q17*1.3</f>
+        <v>335.40000000000003</v>
+      </c>
+      <c r="S17" s="28">
+        <f t="shared" ref="S17:V17" si="17">R17*1.3</f>
+        <v>436.02000000000004</v>
+      </c>
+      <c r="T17" s="28">
         <f t="shared" si="17"/>
-        <v>707.95199999999988</v>
-      </c>
-      <c r="U17" s="29">
+        <v>566.82600000000002</v>
+      </c>
+      <c r="U17" s="28">
         <f t="shared" si="17"/>
-        <v>991.13279999999975</v>
-      </c>
-      <c r="V17" s="29">
+        <v>736.87380000000007</v>
+      </c>
+      <c r="V17" s="28">
         <f t="shared" si="17"/>
-        <v>1387.5859199999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="1" t="s">
+        <v>957.93594000000007</v>
+      </c>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="1"/>
@@ -2717,11 +2779,11 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36">
+      <c r="N18" s="35"/>
+      <c r="O18" s="35">
         <v>1</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="35">
         <v>38</v>
       </c>
       <c r="Q18" s="1">
@@ -2729,29 +2791,30 @@
         <v>75</v>
       </c>
       <c r="R18" s="1">
-        <f>Q18*1.5</f>
-        <v>112.5</v>
+        <f>Q18*2</f>
+        <v>150</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" ref="S18:V18" si="18">R18*1.5</f>
-        <v>168.75</v>
+        <f>R18*2</f>
+        <v>300</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="18"/>
-        <v>253.125</v>
+        <f>S18*1.3</f>
+        <v>390</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="18"/>
-        <v>379.6875</v>
+        <f t="shared" ref="U18:V18" si="18">T18*1.3</f>
+        <v>507</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="18"/>
-        <v>569.53125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="1" t="s">
+        <v>659.1</v>
+      </c>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="1"/>
@@ -2776,11 +2839,11 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36">
-        <v>0</v>
-      </c>
-      <c r="P19" s="36">
+      <c r="N19" s="35"/>
+      <c r="O19" s="35">
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
         <v>10</v>
       </c>
       <c r="Q19" s="1">
@@ -2788,476 +2851,477 @@
         <v>112.95792900000001</v>
       </c>
       <c r="R19" s="1">
-        <f>Q19*1.5</f>
-        <v>169.4368935</v>
+        <f>Q19*3</f>
+        <v>338.87378699999999</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" ref="S19:V19" si="19">R19*1.5</f>
-        <v>254.15534024999999</v>
+        <f>R19*2</f>
+        <v>677.74757399999999</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="19"/>
-        <v>381.23301037499999</v>
+        <f>S19*1.5</f>
+        <v>1016.621361</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="19"/>
-        <v>571.84951556249996</v>
+        <f t="shared" ref="U19:V19" si="19">T19*1.5</f>
+        <v>1524.9320415</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="19"/>
-        <v>857.77427334374988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+        <v>2287.3980622499998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <v>403</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="28">
         <f t="shared" ref="H20:H24" si="20">G20*1.01</f>
         <v>407.03000000000003</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <f t="shared" ref="I20:J20" si="21">H20*1.01</f>
         <v>411.10030000000006</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="28">
         <f t="shared" si="21"/>
         <v>415.21130300000004</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="29">
+      <c r="N20" s="30"/>
+      <c r="O20" s="28">
         <v>1211</v>
       </c>
-      <c r="P20" s="29">
+      <c r="P20" s="28">
         <v>1605</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="28">
         <f t="shared" ref="Q20:Q26" si="22">SUM(G20:J20)</f>
         <v>1636.3416030000001</v>
       </c>
-      <c r="R20" s="29">
+      <c r="R20" s="28">
         <f>Q20*1.03</f>
         <v>1685.4318510900002</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="28">
         <f t="shared" ref="S20:V20" si="23">R20*1.03</f>
         <v>1735.9948066227003</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="28">
         <f t="shared" si="23"/>
         <v>1788.0746508213813</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="28">
         <f t="shared" si="23"/>
         <v>1841.7168903460229</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20" s="28">
         <f t="shared" si="23"/>
         <v>1896.9683970564035</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="29" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>3565</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <f t="shared" si="20"/>
         <v>3600.65</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <f t="shared" ref="I21:J21" si="24">H21*1.01</f>
         <v>3636.6565000000001</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <f t="shared" si="24"/>
         <v>3673.0230649999999</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="28">
         <v>9168</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="28">
         <v>10762</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="28">
         <v>11789</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="28">
         <v>12206</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="28">
         <v>13333</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="28">
         <f t="shared" si="22"/>
         <v>14475.329564999998</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="28">
         <f>Q21*1.03</f>
         <v>14909.589451949998</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21" s="28">
         <f>R21*1.03</f>
         <v>15356.877135508499</v>
       </c>
-      <c r="T21" s="29">
-        <v>0</v>
-      </c>
-      <c r="U21" s="29">
-        <v>0</v>
-      </c>
-      <c r="V21" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
+      <c r="T21" s="28">
+        <f>S21*0.5</f>
+        <v>7678.4385677542496</v>
+      </c>
+      <c r="U21" s="28">
+        <v>0</v>
+      </c>
+      <c r="V21" s="28">
+        <f>U21*0.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <v>936</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="28">
         <f>G22*1.05</f>
         <v>982.80000000000007</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <f t="shared" ref="I22:J22" si="25">H22*1.05</f>
         <v>1031.94</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <f t="shared" si="25"/>
         <v>1083.537</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="28">
         <v>12106</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="28">
         <v>12821</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="28">
         <v>9978</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="28">
         <v>6097</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="28">
         <v>5773</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="Q22" s="28">
         <f t="shared" si="22"/>
         <v>4034.277</v>
       </c>
-      <c r="R22" s="29">
-        <f>Q22*0.95</f>
-        <v>3832.56315</v>
-      </c>
-      <c r="S22" s="29">
-        <f t="shared" ref="S22:V22" si="26">R22*0.95</f>
-        <v>3640.9349924999997</v>
-      </c>
-      <c r="T22" s="29">
+      <c r="R22" s="28">
+        <f>Q22*0.9</f>
+        <v>3630.8493000000003</v>
+      </c>
+      <c r="S22" s="28">
+        <f t="shared" ref="S22:V22" si="26">R22*0.9</f>
+        <v>3267.7643700000003</v>
+      </c>
+      <c r="T22" s="28">
         <f t="shared" si="26"/>
-        <v>3458.8882428749994</v>
-      </c>
-      <c r="U22" s="29">
+        <v>2940.9879330000003</v>
+      </c>
+      <c r="U22" s="28">
         <f t="shared" si="26"/>
-        <v>3285.9438307312494</v>
-      </c>
-      <c r="V22" s="29">
+        <v>2646.8891397000002</v>
+      </c>
+      <c r="V22" s="28">
         <f t="shared" si="26"/>
-        <v>3121.6466391946869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
+        <v>2382.2002257300001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <v>658</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <f>G23*1.2</f>
         <v>789.6</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <f t="shared" ref="I23:J23" si="27">H23*1.2</f>
         <v>947.52</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <f t="shared" si="27"/>
         <v>1137.0239999999999</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="28">
         <v>3070</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="28">
         <v>3332</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="28">
         <v>3497</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="28">
         <v>3441</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="28">
         <v>3545</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q23" s="28">
         <f t="shared" si="22"/>
         <v>3532.1439999999998</v>
       </c>
-      <c r="R23" s="29">
-        <f>Q23*1.03</f>
-        <v>3638.1083199999998</v>
-      </c>
-      <c r="S23" s="29">
-        <f t="shared" ref="S23:V23" si="28">R23*1.03</f>
-        <v>3747.2515696</v>
-      </c>
-      <c r="T23" s="29">
+      <c r="R23" s="28">
+        <f>Q23*0.5</f>
+        <v>1766.0719999999999</v>
+      </c>
+      <c r="S23" s="28">
+        <v>0</v>
+      </c>
+      <c r="T23" s="28">
+        <f t="shared" ref="T23:V23" si="28">S23*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="28">
         <f t="shared" si="28"/>
-        <v>3859.669116688</v>
-      </c>
-      <c r="U23" s="29">
+        <v>0</v>
+      </c>
+      <c r="V23" s="28">
         <f t="shared" si="28"/>
-        <v>3975.4591901886402</v>
-      </c>
-      <c r="V23" s="29">
-        <f t="shared" si="28"/>
-        <v>4094.7229658942993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <v>175</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="28">
         <f t="shared" si="20"/>
         <v>176.75</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <f t="shared" ref="I24:J24" si="29">H24*1.01</f>
         <v>178.51750000000001</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="28">
         <f t="shared" si="29"/>
         <v>180.30267500000002</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="28">
         <v>2140</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="28">
         <v>2117</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="28">
         <v>2165</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="28">
         <v>1930</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="28">
         <v>1286</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="Q24" s="28">
         <f t="shared" si="22"/>
         <v>710.57017500000006</v>
       </c>
-      <c r="R24" s="29">
+      <c r="R24" s="28">
         <f>Q24*0.8</f>
         <v>568.45614000000012</v>
       </c>
-      <c r="S24" s="29">
+      <c r="S24" s="28">
         <f t="shared" ref="S24:V24" si="30">R24*0.8</f>
         <v>454.76491200000009</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="28">
         <f t="shared" si="30"/>
         <v>363.8119296000001</v>
       </c>
-      <c r="U24" s="29">
+      <c r="U24" s="28">
         <f t="shared" si="30"/>
         <v>291.04954368000011</v>
       </c>
-      <c r="V24" s="29">
+      <c r="V24" s="28">
         <f t="shared" si="30"/>
         <v>232.8396349440001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="28">
         <v>105</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <f>G25*1.4</f>
         <v>147</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <f t="shared" ref="I25:J25" si="31">H25*1.4</f>
         <v>205.79999999999998</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <f t="shared" si="31"/>
         <v>288.11999999999995</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="28">
         <v>1247</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="28">
         <v>1181</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="30">
         <v>811</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="28">
         <v>1004</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="28">
         <v>875</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25" s="28">
         <f t="shared" si="22"/>
         <v>745.91999999999985</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="28">
         <f>Q25*0.9</f>
         <v>671.32799999999986</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="28">
         <f t="shared" ref="S25:V25" si="32">R25*0.9</f>
         <v>604.19519999999989</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="28">
         <f t="shared" si="32"/>
         <v>543.77567999999997</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="28">
         <f t="shared" si="32"/>
         <v>489.39811199999997</v>
       </c>
-      <c r="V25" s="29">
+      <c r="V25" s="28">
         <f t="shared" si="32"/>
         <v>440.45830079999996</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <v>199</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <f>G26*1.1</f>
         <v>218.9</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <f t="shared" ref="I26:J26" si="33">H26*1.1</f>
         <v>240.79000000000002</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <f t="shared" si="33"/>
         <v>264.86900000000003</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="29">
+      <c r="N26" s="30"/>
+      <c r="O26" s="28">
         <v>962</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="28">
         <v>925</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="28">
         <f t="shared" si="22"/>
         <v>923.55900000000008</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="28">
         <f>Q26*0.9</f>
         <v>831.20310000000006</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="28">
         <f t="shared" ref="S26:V26" si="34">R26*0.9</f>
         <v>748.08279000000005</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="28">
         <f t="shared" si="34"/>
         <v>673.27451100000008</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="28">
         <f t="shared" si="34"/>
         <v>605.94705990000011</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="28">
         <f t="shared" si="34"/>
         <v>545.35235391000015</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <f>11559</f>
         <v>11559</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <v>10886</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="28">
         <f>44671</f>
         <v>44671</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="28">
         <f>43778</f>
         <v>43778</v>
       </c>
-      <c r="P27" s="29">
+      <c r="P27" s="28">
         <v>46778</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27" s="28">
         <f t="shared" ref="Q27:Q42" si="35">SUM(G27:J27)</f>
         <v>10886</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <f>306</f>
         <v>306</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <v>315</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="28">
         <f>1488</f>
         <v>1488</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="28">
         <f>1228</f>
         <v>1228</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P28" s="28">
         <v>1522</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="28">
         <f t="shared" si="35"/>
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
@@ -3314,1296 +3378,1296 @@
       </c>
       <c r="R29" s="4">
         <f>SUM(R7:R26)</f>
-        <v>49351.415931310003</v>
+        <v>47854.868192150003</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" ref="S29:V29" si="40">SUM(S7:S26)</f>
-        <v>50324.322382778308</v>
+        <v>47616.8771663523</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" si="40"/>
-        <v>25717.07694349244</v>
+        <v>36174.88908561656</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="40"/>
-        <v>26543.068677619201</v>
+        <v>25385.057828779445</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" si="40"/>
-        <v>27772.093341633801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
+        <v>27475.476515960738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <f>2932</f>
         <v>2932</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="28">
         <v>3033</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="28">
         <f>H29*0.25</f>
         <v>2955.7925</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <f t="shared" ref="I30:J30" si="41">I29*0.25</f>
         <v>3111.4097250000004</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="28">
         <f t="shared" si="41"/>
         <v>3292.6355112500005</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N30" s="28">
         <f>10137</f>
         <v>10137</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="28">
         <f>10693</f>
         <v>10693</v>
       </c>
-      <c r="P30" s="29">
+      <c r="P30" s="28">
         <f>13968</f>
         <v>13968</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="28">
         <f t="shared" si="35"/>
         <v>12392.837736250001</v>
       </c>
-      <c r="R30" s="29">
+      <c r="R30" s="28">
         <f>R29*0.25</f>
-        <v>12337.853982827501</v>
-      </c>
-      <c r="S30" s="29">
+        <v>11963.717048037501</v>
+      </c>
+      <c r="S30" s="28">
         <f t="shared" ref="S30:V30" si="42">S29*0.25</f>
-        <v>12581.080595694577</v>
-      </c>
-      <c r="T30" s="29">
+        <v>11904.219291588075</v>
+      </c>
+      <c r="T30" s="28">
         <f t="shared" si="42"/>
-        <v>6429.2692358731101</v>
-      </c>
-      <c r="U30" s="29">
+        <v>9043.72227140414</v>
+      </c>
+      <c r="U30" s="28">
         <f t="shared" si="42"/>
-        <v>6635.7671694048004</v>
-      </c>
-      <c r="V30" s="29">
+        <v>6346.2644571948613</v>
+      </c>
+      <c r="V30" s="28">
         <f t="shared" si="42"/>
-        <v>6943.0233354084503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="29" t="s">
+        <v>6868.8691289901844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="28">
         <f>C29-C30</f>
         <v>8933</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <f t="shared" ref="D31:N31" si="43">D29-D30</f>
         <v>0</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="28">
         <f t="shared" si="43"/>
         <v>8168</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <f t="shared" si="43"/>
         <v>8867.3775000000005</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <f t="shared" ref="I31" si="44">I29-I30</f>
         <v>9334.2291750000004</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="28">
         <f t="shared" ref="J31" si="45">J29-J30</f>
         <v>9877.9065337500015</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="28">
         <f t="shared" si="43"/>
         <v>36022</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="28">
         <f t="shared" ref="O31" si="46">O29-O30</f>
         <v>34313</v>
       </c>
-      <c r="P31" s="29">
+      <c r="P31" s="28">
         <f t="shared" ref="P31" si="47">P29-P30</f>
         <v>34332</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="Q31" s="28">
         <f t="shared" si="35"/>
         <v>36247.513208750002</v>
       </c>
-      <c r="R31" s="29">
+      <c r="R31" s="28">
         <f t="shared" ref="R31" si="48">R29-R30</f>
-        <v>37013.5619484825</v>
-      </c>
-      <c r="S31" s="29">
+        <v>35891.151144112504</v>
+      </c>
+      <c r="S31" s="28">
         <f t="shared" ref="S31" si="49">S29-S30</f>
-        <v>37743.241787083731</v>
-      </c>
-      <c r="T31" s="29">
+        <v>35712.657874764227</v>
+      </c>
+      <c r="T31" s="28">
         <f t="shared" ref="T31" si="50">T29-T30</f>
-        <v>19287.807707619329</v>
-      </c>
-      <c r="U31" s="29">
+        <v>27131.166814212418</v>
+      </c>
+      <c r="U31" s="28">
         <f t="shared" ref="U31:V31" si="51">U29-U30</f>
-        <v>19907.301508214401</v>
-      </c>
-      <c r="V31" s="29">
+        <v>19038.793371584583</v>
+      </c>
+      <c r="V31" s="28">
         <f t="shared" si="51"/>
-        <v>20829.070006225353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="29" t="s">
+        <v>20606.607386970554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="28">
         <f>2367</f>
         <v>2367</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="28">
         <v>1584</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="28">
         <f>G32*1.25</f>
         <v>1980</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="28">
         <f t="shared" ref="I32:J32" si="52">H32*1.2</f>
         <v>2376</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="28">
         <f t="shared" si="52"/>
         <v>2851.2</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="28">
         <f>7814</f>
         <v>7814</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="28">
         <f>7772</f>
         <v>7772</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P32" s="28">
         <f>8414</f>
         <v>8414</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="28">
         <f t="shared" si="35"/>
         <v>8791.2000000000007</v>
       </c>
-      <c r="R32" s="29">
+      <c r="R32" s="28">
         <f>Q32*1.04</f>
         <v>9142.8480000000018</v>
       </c>
-      <c r="S32" s="29">
+      <c r="S32" s="28">
         <f t="shared" ref="S32:V32" si="53">R32*1.04</f>
         <v>9508.5619200000019</v>
       </c>
-      <c r="T32" s="29">
+      <c r="T32" s="28">
         <f t="shared" si="53"/>
         <v>9888.9043968000024</v>
       </c>
-      <c r="U32" s="29">
+      <c r="U32" s="28">
         <f t="shared" si="53"/>
         <v>10284.460572672002</v>
       </c>
-      <c r="V32" s="29">
+      <c r="V32" s="28">
         <f t="shared" si="53"/>
         <v>10695.838995578883</v>
       </c>
     </row>
     <row r="33" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <f>2695</f>
         <v>2695</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <v>2257</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="28">
         <f>9509</f>
         <v>9509</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="28">
         <f>9299</f>
         <v>9299</v>
       </c>
-      <c r="P33" s="29">
+      <c r="P33" s="28">
         <f>11159</f>
         <v>11159</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="Q33" s="28">
         <f t="shared" si="35"/>
         <v>2257</v>
       </c>
     </row>
     <row r="34" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <f>12949</f>
         <v>12949</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="28">
         <v>188</v>
       </c>
-      <c r="N34" s="29">
+      <c r="N34" s="28">
         <f>815</f>
         <v>815</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O34" s="28">
         <f>913</f>
         <v>913</v>
       </c>
-      <c r="P34" s="29">
+      <c r="P34" s="28">
         <f>13363</f>
         <v>13363</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="28">
         <f t="shared" si="35"/>
         <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <f>2357</f>
         <v>2357</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="28">
         <v>830</v>
       </c>
-      <c r="N35" s="29">
+      <c r="N35" s="28">
         <f>9595</f>
         <v>9595</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O35" s="28">
         <f>9047</f>
         <v>9047</v>
       </c>
-      <c r="P35" s="29">
+      <c r="P35" s="28">
         <f>8872</f>
         <v>8872</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="Q35" s="28">
         <f t="shared" si="35"/>
         <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="28">
         <f>81</f>
         <v>81</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="28">
         <v>339</v>
       </c>
-      <c r="N36" s="29">
+      <c r="N36" s="28">
         <f>576</f>
         <v>576</v>
       </c>
-      <c r="O36" s="29">
+      <c r="O36" s="28">
         <f>-1158</f>
         <v>-1158</v>
       </c>
-      <c r="P36" s="29">
+      <c r="P36" s="28">
         <f>893</f>
         <v>893</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="Q36" s="28">
         <f t="shared" si="35"/>
         <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <f>SUM(C32:C36)</f>
         <v>20449</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <f t="shared" ref="D37:N37" si="54">SUM(D32:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="28">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="28">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="28">
         <f t="shared" si="54"/>
         <v>5198</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <f t="shared" si="54"/>
         <v>1980</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="28">
         <f t="shared" ref="I37" si="55">SUM(I32:I36)</f>
         <v>2376</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="28">
         <f t="shared" ref="J37" si="56">SUM(J32:J36)</f>
         <v>2851.2</v>
       </c>
-      <c r="N37" s="29">
+      <c r="N37" s="28">
         <f t="shared" si="54"/>
         <v>28309</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="28">
         <f t="shared" ref="O37" si="57">SUM(O32:O36)</f>
         <v>25873</v>
       </c>
-      <c r="P37" s="29">
+      <c r="P37" s="28">
         <f t="shared" ref="P37" si="58">SUM(P32:P36)</f>
         <v>42701</v>
       </c>
-      <c r="Q37" s="29">
+      <c r="Q37" s="28">
         <f t="shared" si="35"/>
         <v>12405.2</v>
       </c>
-      <c r="R37" s="29">
+      <c r="R37" s="28">
         <f t="shared" ref="R37" si="59">SUM(R32:R36)</f>
         <v>9142.8480000000018</v>
       </c>
-      <c r="S37" s="29">
+      <c r="S37" s="28">
         <f t="shared" ref="S37" si="60">SUM(S32:S36)</f>
         <v>9508.5619200000019</v>
       </c>
-      <c r="T37" s="29">
+      <c r="T37" s="28">
         <f t="shared" ref="T37" si="61">SUM(T32:T36)</f>
         <v>9888.9043968000024</v>
       </c>
-      <c r="U37" s="29">
+      <c r="U37" s="28">
         <f t="shared" ref="U37" si="62">SUM(U32:U36)</f>
         <v>10284.460572672002</v>
       </c>
-      <c r="V37" s="29">
+      <c r="V37" s="28">
         <f t="shared" ref="V37" si="63">SUM(V32:V36)</f>
         <v>10695.838995578883</v>
       </c>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <f>C31-C37</f>
         <v>-11516</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <f t="shared" ref="D38:N38" si="64">D31-D37</f>
         <v>0</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="28">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="28">
         <f t="shared" si="64"/>
         <v>2970</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <f t="shared" si="64"/>
         <v>6887.3775000000005</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <f t="shared" ref="I38" si="65">I31-I37</f>
         <v>6958.2291750000004</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="28">
         <f t="shared" ref="J38" si="66">J31-J37</f>
         <v>7026.7065337500017</v>
       </c>
-      <c r="N38" s="29">
+      <c r="N38" s="28">
         <f t="shared" si="64"/>
         <v>7713</v>
       </c>
-      <c r="O38" s="29">
+      <c r="O38" s="28">
         <f t="shared" ref="O38" si="67">O31-O37</f>
         <v>8440</v>
       </c>
-      <c r="P38" s="29">
+      <c r="P38" s="28">
         <f t="shared" ref="P38" si="68">P31-P37</f>
         <v>-8369</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="Q38" s="28">
         <f t="shared" si="35"/>
         <v>23842.313208750005</v>
       </c>
-      <c r="R38" s="29">
+      <c r="R38" s="28">
         <f t="shared" ref="R38" si="69">R31-R37</f>
-        <v>27870.713948482498</v>
-      </c>
-      <c r="S38" s="29">
+        <v>26748.303144112502</v>
+      </c>
+      <c r="S38" s="28">
         <f t="shared" ref="S38" si="70">S31-S37</f>
-        <v>28234.679867083731</v>
-      </c>
-      <c r="T38" s="29">
+        <v>26204.095954764227</v>
+      </c>
+      <c r="T38" s="28">
         <f t="shared" ref="T38" si="71">T31-T37</f>
-        <v>9398.9033108193271</v>
-      </c>
-      <c r="U38" s="29">
+        <v>17242.262417412414</v>
+      </c>
+      <c r="U38" s="28">
         <f t="shared" ref="U38" si="72">U31-U37</f>
-        <v>9622.8409355423992</v>
-      </c>
-      <c r="V38" s="29">
+        <v>8754.332798912581</v>
+      </c>
+      <c r="V38" s="28">
         <f t="shared" ref="V38" si="73">V31-V37</f>
-        <v>10133.23101064647</v>
+        <v>9910.7683913916717</v>
       </c>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="29">
-        <v>0</v>
-      </c>
-      <c r="G39" s="29">
-        <v>0</v>
-      </c>
-      <c r="H39" s="29">
+      <c r="C39" s="28">
+        <v>0</v>
+      </c>
+      <c r="G39" s="28">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28">
         <f>G50*$Y$45/4</f>
         <v>-195.63499999999999</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <f>H50*$Y$45/4</f>
         <v>-165.52215875000002</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="28">
         <f>I50*$Y$45/4</f>
         <v>-134.95497717687502</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="Q39" s="28">
         <f t="shared" si="35"/>
         <v>-496.112135926875</v>
       </c>
-      <c r="R39" s="29">
+      <c r="R39" s="28">
         <f>Q50*$Y$45</f>
         <v>-415.76838068918386</v>
       </c>
-      <c r="S39" s="29">
+      <c r="S39" s="28">
         <f>R50*$Y$45</f>
-        <v>23.510748395509218</v>
-      </c>
-      <c r="T39" s="29">
+        <v>5.5521755255892637</v>
+      </c>
+      <c r="T39" s="28">
         <f>S50*$Y$45</f>
-        <v>475.64179824317711</v>
-      </c>
-      <c r="U39" s="29">
+        <v>424.90654561022632</v>
+      </c>
+      <c r="U39" s="28">
         <f>T50*$Y$45</f>
-        <v>633.6345199881772</v>
-      </c>
-      <c r="V39" s="29">
+        <v>707.58124901858855</v>
+      </c>
+      <c r="V39" s="28">
         <f>U50*$Y$45</f>
-        <v>797.73812727666632</v>
+        <v>858.97187378548733</v>
       </c>
     </row>
     <row r="40" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="28">
         <f>C38+C39</f>
         <v>-11516</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <f t="shared" ref="D40:N40" si="74">D38+D39</f>
         <v>0</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="28">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="28">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="28">
         <f t="shared" si="74"/>
         <v>2970</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="28">
         <f t="shared" si="74"/>
         <v>6691.7425000000003</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="28">
         <f t="shared" ref="I40" si="75">I38+I39</f>
         <v>6792.7070162500004</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="28">
         <f t="shared" ref="J40" si="76">J38+J39</f>
         <v>6891.7515565731264</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N40" s="28">
         <f t="shared" si="74"/>
         <v>7713</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O40" s="28">
         <f t="shared" ref="O40" si="77">O38+O39</f>
         <v>8440</v>
       </c>
-      <c r="P40" s="29">
+      <c r="P40" s="28">
         <f t="shared" ref="P40" si="78">P38+P39</f>
         <v>-8369</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q40" s="28">
         <f t="shared" si="35"/>
         <v>23346.201072823129</v>
       </c>
-      <c r="R40" s="29">
+      <c r="R40" s="28">
         <f t="shared" ref="R40" si="79">R38+R39</f>
-        <v>27454.945567793315</v>
-      </c>
-      <c r="S40" s="29">
+        <v>26332.534763423319</v>
+      </c>
+      <c r="S40" s="28">
         <f t="shared" ref="S40" si="80">S38+S39</f>
-        <v>28258.190615479241</v>
-      </c>
-      <c r="T40" s="29">
+        <v>26209.648130289817</v>
+      </c>
+      <c r="T40" s="28">
         <f t="shared" ref="T40" si="81">T38+T39</f>
-        <v>9874.5451090625047</v>
-      </c>
-      <c r="U40" s="29">
+        <v>17667.168963022639</v>
+      </c>
+      <c r="U40" s="28">
         <f t="shared" ref="U40" si="82">U38+U39</f>
-        <v>10256.475455530577</v>
-      </c>
-      <c r="V40" s="29">
+        <v>9461.91404793117</v>
+      </c>
+      <c r="V40" s="28">
         <f t="shared" ref="V40" si="83">V38+V39</f>
-        <v>10930.969137923137</v>
+        <v>10769.740265177159</v>
       </c>
     </row>
     <row r="41" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="28">
         <v>509</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="28">
         <f>H40*0.1</f>
         <v>669.17425000000003</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="28">
         <f t="shared" ref="I41:J41" si="84">I40*0.1</f>
         <v>679.27070162500013</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="28">
         <f t="shared" si="84"/>
         <v>689.17515565731264</v>
       </c>
-      <c r="N41" s="29">
+      <c r="N41" s="28">
         <f>1368</f>
         <v>1368</v>
       </c>
-      <c r="O41" s="29">
+      <c r="O41" s="28">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="P41" s="29">
+      <c r="P41" s="28">
         <v>554</v>
       </c>
-      <c r="Q41" s="29">
+      <c r="Q41" s="28">
         <f t="shared" si="35"/>
         <v>2546.6201072823128</v>
       </c>
-      <c r="R41" s="29">
+      <c r="R41" s="28">
         <f>R40*0.2</f>
-        <v>5490.9891135586631</v>
-      </c>
-      <c r="S41" s="29">
+        <v>5266.5069526846637</v>
+      </c>
+      <c r="S41" s="28">
         <f t="shared" ref="S41:V41" si="85">S40*0.2</f>
-        <v>5651.6381230958486</v>
-      </c>
-      <c r="T41" s="29">
+        <v>5241.929626057964</v>
+      </c>
+      <c r="T41" s="28">
         <f t="shared" si="85"/>
-        <v>1974.9090218125011</v>
-      </c>
-      <c r="U41" s="29">
+        <v>3533.4337926045282</v>
+      </c>
+      <c r="U41" s="28">
         <f t="shared" si="85"/>
-        <v>2051.2950911061157</v>
-      </c>
-      <c r="V41" s="29">
+        <v>1892.3828095862341</v>
+      </c>
+      <c r="V41" s="28">
         <f t="shared" si="85"/>
-        <v>2186.1938275846273</v>
+        <v>2153.9480530354317</v>
       </c>
     </row>
     <row r="42" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="28">
         <f>C40-C41</f>
         <v>-11516</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <f t="shared" ref="D42:N42" si="86">D40-D41</f>
         <v>0</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="28">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="28">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="28">
         <f t="shared" si="86"/>
         <v>2461</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="28">
         <f t="shared" si="86"/>
         <v>6022.5682500000003</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="28">
         <f t="shared" ref="I42" si="87">I40-I41</f>
         <v>6113.4363146249998</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="28">
         <f t="shared" ref="J42" si="88">J40-J41</f>
         <v>6202.5764009158138</v>
       </c>
-      <c r="N42" s="29">
+      <c r="N42" s="28">
         <f t="shared" si="86"/>
         <v>6345</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O42" s="28">
         <f t="shared" ref="O42" si="89">O40-O41</f>
         <v>8040</v>
       </c>
-      <c r="P42" s="29">
+      <c r="P42" s="28">
         <f t="shared" ref="P42" si="90">P40-P41</f>
         <v>-8923</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42" s="28">
         <f t="shared" si="35"/>
         <v>20799.580965540816</v>
       </c>
-      <c r="R42" s="29">
+      <c r="R42" s="28">
         <f t="shared" ref="R42" si="91">R40-R41</f>
-        <v>21963.956454234652</v>
-      </c>
-      <c r="S42" s="29">
+        <v>21066.027810738655</v>
+      </c>
+      <c r="S42" s="28">
         <f t="shared" ref="S42" si="92">S40-S41</f>
-        <v>22606.552492383395</v>
-      </c>
-      <c r="T42" s="29">
+        <v>20967.718504231852</v>
+      </c>
+      <c r="T42" s="28">
         <f t="shared" ref="T42" si="93">T40-T41</f>
-        <v>7899.6360872500036</v>
-      </c>
-      <c r="U42" s="29">
+        <v>14133.735170418111</v>
+      </c>
+      <c r="U42" s="28">
         <f t="shared" ref="U42" si="94">U40-U41</f>
-        <v>8205.180364424461</v>
-      </c>
-      <c r="V42" s="29">
+        <v>7569.5312383449364</v>
+      </c>
+      <c r="V42" s="28">
         <f t="shared" ref="V42" si="95">V40-V41</f>
-        <v>8744.7753103385094</v>
-      </c>
-      <c r="W42" s="29">
+        <v>8615.7922121417268</v>
+      </c>
+      <c r="W42" s="28">
         <f t="shared" ref="W42:BB42" si="96">V42*(1+$Y$46)</f>
-        <v>8657.3275572351249</v>
-      </c>
-      <c r="X42" s="29">
+        <v>8529.634290020309</v>
+      </c>
+      <c r="X42" s="28">
         <f t="shared" si="96"/>
-        <v>8570.7542816627738</v>
-      </c>
-      <c r="Y42" s="29">
+        <v>8444.337947120106</v>
+      </c>
+      <c r="Y42" s="28">
         <f t="shared" si="96"/>
-        <v>8485.0467388461457</v>
-      </c>
-      <c r="Z42" s="29">
+        <v>8359.8945676489056</v>
+      </c>
+      <c r="Z42" s="28">
         <f t="shared" si="96"/>
-        <v>8400.1962714576839</v>
-      </c>
-      <c r="AA42" s="29">
+        <v>8276.2956219724165</v>
+      </c>
+      <c r="AA42" s="28">
         <f t="shared" si="96"/>
-        <v>8316.1943087431064</v>
-      </c>
-      <c r="AB42" s="29">
+        <v>8193.532665752693</v>
+      </c>
+      <c r="AB42" s="28">
         <f t="shared" si="96"/>
-        <v>8233.0323656556757</v>
-      </c>
-      <c r="AC42" s="29">
+        <v>8111.5973390951658</v>
+      </c>
+      <c r="AC42" s="28">
         <f t="shared" si="96"/>
-        <v>8150.7020419991186</v>
-      </c>
-      <c r="AD42" s="29">
+        <v>8030.4813657042141</v>
+      </c>
+      <c r="AD42" s="28">
         <f t="shared" si="96"/>
-        <v>8069.1950215791276</v>
-      </c>
-      <c r="AE42" s="29">
+        <v>7950.1765520471718</v>
+      </c>
+      <c r="AE42" s="28">
         <f t="shared" si="96"/>
-        <v>7988.5030713633359</v>
-      </c>
-      <c r="AF42" s="29">
+        <v>7870.6747865266998</v>
+      </c>
+      <c r="AF42" s="28">
         <f t="shared" si="96"/>
-        <v>7908.6180406497024</v>
-      </c>
-      <c r="AG42" s="29">
+        <v>7791.9680386614327</v>
+      </c>
+      <c r="AG42" s="28">
         <f t="shared" si="96"/>
-        <v>7829.5318602432053</v>
-      </c>
-      <c r="AH42" s="29">
+        <v>7714.0483582748184</v>
+      </c>
+      <c r="AH42" s="28">
         <f t="shared" si="96"/>
-        <v>7751.2365416407729</v>
-      </c>
-      <c r="AI42" s="29">
+        <v>7636.9078746920704</v>
+      </c>
+      <c r="AI42" s="28">
         <f t="shared" si="96"/>
-        <v>7673.7241762243648</v>
-      </c>
-      <c r="AJ42" s="29">
+        <v>7560.53879594515</v>
+      </c>
+      <c r="AJ42" s="28">
         <f t="shared" si="96"/>
-        <v>7596.9869344621211</v>
-      </c>
-      <c r="AK42" s="29">
+        <v>7484.9334079856981</v>
+      </c>
+      <c r="AK42" s="28">
         <f t="shared" si="96"/>
-        <v>7521.0170651174994</v>
-      </c>
-      <c r="AL42" s="29">
+        <v>7410.0840739058413</v>
+      </c>
+      <c r="AL42" s="28">
         <f t="shared" si="96"/>
-        <v>7445.8068944663246</v>
-      </c>
-      <c r="AM42" s="29">
+        <v>7335.9832331667831</v>
+      </c>
+      <c r="AM42" s="28">
         <f t="shared" si="96"/>
-        <v>7371.3488255216616</v>
-      </c>
-      <c r="AN42" s="29">
+        <v>7262.6234008351148</v>
+      </c>
+      <c r="AN42" s="28">
         <f t="shared" si="96"/>
-        <v>7297.6353372664453</v>
-      </c>
-      <c r="AO42" s="29">
+        <v>7189.9971668267635</v>
+      </c>
+      <c r="AO42" s="28">
         <f t="shared" si="96"/>
-        <v>7224.6589838937807</v>
-      </c>
-      <c r="AP42" s="29">
+        <v>7118.0971951584961</v>
+      </c>
+      <c r="AP42" s="28">
         <f t="shared" si="96"/>
-        <v>7152.4123940548425</v>
-      </c>
-      <c r="AQ42" s="29">
+        <v>7046.9162232069111</v>
+      </c>
+      <c r="AQ42" s="28">
         <f t="shared" si="96"/>
-        <v>7080.8882701142938</v>
-      </c>
-      <c r="AR42" s="29">
+        <v>6976.4470609748423</v>
+      </c>
+      <c r="AR42" s="28">
         <f t="shared" si="96"/>
-        <v>7010.0793874131505</v>
-      </c>
-      <c r="AS42" s="29">
+        <v>6906.6825903650943</v>
+      </c>
+      <c r="AS42" s="28">
         <f t="shared" si="96"/>
-        <v>6939.9785935390191</v>
-      </c>
-      <c r="AT42" s="29">
+        <v>6837.6157644614432</v>
+      </c>
+      <c r="AT42" s="28">
         <f t="shared" si="96"/>
-        <v>6870.5788076036288</v>
-      </c>
-      <c r="AU42" s="29">
+        <v>6769.2396068168291</v>
+      </c>
+      <c r="AU42" s="28">
         <f t="shared" si="96"/>
-        <v>6801.8730195275921</v>
-      </c>
-      <c r="AV42" s="29">
+        <v>6701.5472107486612</v>
+      </c>
+      <c r="AV42" s="28">
         <f t="shared" si="96"/>
-        <v>6733.8542893323165</v>
-      </c>
-      <c r="AW42" s="29">
+        <v>6634.5317386411743</v>
+      </c>
+      <c r="AW42" s="28">
         <f t="shared" si="96"/>
-        <v>6666.5157464389931</v>
-      </c>
-      <c r="AX42" s="29">
+        <v>6568.1864212547625</v>
+      </c>
+      <c r="AX42" s="28">
         <f t="shared" si="96"/>
-        <v>6599.8505889746029</v>
-      </c>
-      <c r="AY42" s="29">
+        <v>6502.5045570422144</v>
+      </c>
+      <c r="AY42" s="28">
         <f t="shared" si="96"/>
-        <v>6533.8520830848565</v>
-      </c>
-      <c r="AZ42" s="29">
+        <v>6437.4795114717926</v>
+      </c>
+      <c r="AZ42" s="28">
         <f t="shared" si="96"/>
-        <v>6468.5135622540083</v>
-      </c>
-      <c r="BA42" s="29">
+        <v>6373.1047163570747</v>
+      </c>
+      <c r="BA42" s="28">
         <f t="shared" si="96"/>
-        <v>6403.8284266314686</v>
-      </c>
-      <c r="BB42" s="29">
+        <v>6309.3736691935037</v>
+      </c>
+      <c r="BB42" s="28">
         <f t="shared" si="96"/>
-        <v>6339.7901423651538</v>
-      </c>
-      <c r="BC42" s="29">
+        <v>6246.2799325015685</v>
+      </c>
+      <c r="BC42" s="28">
         <f t="shared" ref="BC42:CH42" si="97">BB42*(1+$Y$46)</f>
-        <v>6276.3922409415018</v>
-      </c>
-      <c r="BD42" s="29">
+        <v>6183.8171331765525</v>
+      </c>
+      <c r="BD42" s="28">
         <f t="shared" si="97"/>
-        <v>6213.6283185320863</v>
-      </c>
-      <c r="BE42" s="29">
+        <v>6121.9789618447867</v>
+      </c>
+      <c r="BE42" s="28">
         <f t="shared" si="97"/>
-        <v>6151.4920353467651</v>
-      </c>
-      <c r="BF42" s="29">
+        <v>6060.7591722263387</v>
+      </c>
+      <c r="BF42" s="28">
         <f t="shared" si="97"/>
-        <v>6089.9771149932976</v>
-      </c>
-      <c r="BG42" s="29">
+        <v>6000.1515805040754</v>
+      </c>
+      <c r="BG42" s="28">
         <f t="shared" si="97"/>
-        <v>6029.0773438433644</v>
-      </c>
-      <c r="BH42" s="29">
+        <v>5940.1500646990344</v>
+      </c>
+      <c r="BH42" s="28">
         <f t="shared" si="97"/>
-        <v>5968.7865704049309</v>
-      </c>
-      <c r="BI42" s="29">
+        <v>5880.7485640520435</v>
+      </c>
+      <c r="BI42" s="28">
         <f t="shared" si="97"/>
-        <v>5909.0987047008812</v>
-      </c>
-      <c r="BJ42" s="29">
+        <v>5821.9410784115234</v>
+      </c>
+      <c r="BJ42" s="28">
         <f t="shared" si="97"/>
-        <v>5850.0077176538725</v>
-      </c>
-      <c r="BK42" s="29">
+        <v>5763.7216676274084</v>
+      </c>
+      <c r="BK42" s="28">
         <f t="shared" si="97"/>
-        <v>5791.5076404773336</v>
-      </c>
-      <c r="BL42" s="29">
+        <v>5706.0844509511344</v>
+      </c>
+      <c r="BL42" s="28">
         <f t="shared" si="97"/>
-        <v>5733.59256407256</v>
-      </c>
-      <c r="BM42" s="29">
+        <v>5649.0236064416231</v>
+      </c>
+      <c r="BM42" s="28">
         <f t="shared" si="97"/>
-        <v>5676.2566384318343</v>
-      </c>
-      <c r="BN42" s="29">
+        <v>5592.5333703772067</v>
+      </c>
+      <c r="BN42" s="28">
         <f t="shared" si="97"/>
-        <v>5619.4940720475161</v>
-      </c>
-      <c r="BO42" s="29">
+        <v>5536.608036673435</v>
+      </c>
+      <c r="BO42" s="28">
         <f t="shared" si="97"/>
-        <v>5563.2991313270404</v>
-      </c>
-      <c r="BP42" s="29">
+        <v>5481.2419563067006</v>
+      </c>
+      <c r="BP42" s="28">
         <f t="shared" si="97"/>
-        <v>5507.66614001377</v>
-      </c>
-      <c r="BQ42" s="29">
+        <v>5426.4295367436334</v>
+      </c>
+      <c r="BQ42" s="28">
         <f t="shared" si="97"/>
-        <v>5452.5894786136323</v>
-      </c>
-      <c r="BR42" s="29">
+        <v>5372.1652413761967</v>
+      </c>
+      <c r="BR42" s="28">
         <f t="shared" si="97"/>
-        <v>5398.0635838274957</v>
-      </c>
-      <c r="BS42" s="29">
+        <v>5318.4435889624347</v>
+      </c>
+      <c r="BS42" s="28">
         <f t="shared" si="97"/>
-        <v>5344.0829479892209</v>
-      </c>
-      <c r="BT42" s="29">
+        <v>5265.2591530728105</v>
+      </c>
+      <c r="BT42" s="28">
         <f t="shared" si="97"/>
-        <v>5290.6421185093286</v>
-      </c>
-      <c r="BU42" s="29">
+        <v>5212.6065615420821</v>
+      </c>
+      <c r="BU42" s="28">
         <f t="shared" si="97"/>
-        <v>5237.7356973242349</v>
-      </c>
-      <c r="BV42" s="29">
+        <v>5160.4804959266612</v>
+      </c>
+      <c r="BV42" s="28">
         <f t="shared" si="97"/>
-        <v>5185.3583403509929</v>
-      </c>
-      <c r="BW42" s="29">
+        <v>5108.8756909673948</v>
+      </c>
+      <c r="BW42" s="28">
         <f t="shared" si="97"/>
-        <v>5133.5047569474827</v>
-      </c>
-      <c r="BX42" s="29">
+        <v>5057.7869340577208</v>
+      </c>
+      <c r="BX42" s="28">
         <f t="shared" si="97"/>
-        <v>5082.1697093780076</v>
-      </c>
-      <c r="BY42" s="29">
+        <v>5007.2090647171435</v>
+      </c>
+      <c r="BY42" s="28">
         <f t="shared" si="97"/>
-        <v>5031.3480122842275</v>
-      </c>
-      <c r="BZ42" s="29">
+        <v>4957.136974069972</v>
+      </c>
+      <c r="BZ42" s="28">
         <f t="shared" si="97"/>
-        <v>4981.034532161385</v>
-      </c>
-      <c r="CA42" s="29">
+        <v>4907.565604329272</v>
+      </c>
+      <c r="CA42" s="28">
         <f t="shared" si="97"/>
-        <v>4931.2241868397714</v>
-      </c>
-      <c r="CB42" s="29">
+        <v>4858.4899482859792</v>
+      </c>
+      <c r="CB42" s="28">
         <f t="shared" si="97"/>
-        <v>4881.9119449713735</v>
-      </c>
-      <c r="CC42" s="29">
+        <v>4809.9050488031189</v>
+      </c>
+      <c r="CC42" s="28">
         <f t="shared" si="97"/>
-        <v>4833.0928255216595</v>
-      </c>
-      <c r="CD42" s="29">
+        <v>4761.8059983150879</v>
+      </c>
+      <c r="CD42" s="28">
         <f t="shared" si="97"/>
-        <v>4784.7618972664432</v>
-      </c>
-      <c r="CE42" s="29">
+        <v>4714.1879383319374</v>
+      </c>
+      <c r="CE42" s="28">
         <f t="shared" si="97"/>
-        <v>4736.9142782937788</v>
-      </c>
-      <c r="CF42" s="29">
+        <v>4667.0460589486183</v>
+      </c>
+      <c r="CF42" s="28">
         <f t="shared" si="97"/>
-        <v>4689.5451355108407</v>
-      </c>
-      <c r="CG42" s="29">
+        <v>4620.3755983591318</v>
+      </c>
+      <c r="CG42" s="28">
         <f t="shared" si="97"/>
-        <v>4642.6496841557318</v>
-      </c>
-      <c r="CH42" s="29">
+        <v>4574.1718423755401</v>
+      </c>
+      <c r="CH42" s="28">
         <f t="shared" si="97"/>
-        <v>4596.2231873141745</v>
-      </c>
-      <c r="CI42" s="29">
+        <v>4528.4301239517845</v>
+      </c>
+      <c r="CI42" s="28">
         <f t="shared" ref="CI42:DN42" si="98">CH42*(1+$Y$46)</f>
-        <v>4550.2609554410328</v>
-      </c>
-      <c r="CJ42" s="29">
+        <v>4483.1458227122666</v>
+      </c>
+      <c r="CJ42" s="28">
         <f t="shared" si="98"/>
-        <v>4504.758345886622</v>
-      </c>
-      <c r="CK42" s="29">
+        <v>4438.3143644851443</v>
+      </c>
+      <c r="CK42" s="28">
         <f t="shared" si="98"/>
-        <v>4459.710762427756</v>
-      </c>
-      <c r="CL42" s="29">
+        <v>4393.9312208402926</v>
+      </c>
+      <c r="CL42" s="28">
         <f t="shared" si="98"/>
-        <v>4415.1136548034783</v>
-      </c>
-      <c r="CM42" s="29">
+        <v>4349.9919086318896</v>
+      </c>
+      <c r="CM42" s="28">
         <f t="shared" si="98"/>
-        <v>4370.9625182554437</v>
-      </c>
-      <c r="CN42" s="29">
+        <v>4306.4919895455705</v>
+      </c>
+      <c r="CN42" s="28">
         <f t="shared" si="98"/>
-        <v>4327.2528930728895</v>
-      </c>
-      <c r="CO42" s="29">
+        <v>4263.4270696501144</v>
+      </c>
+      <c r="CO42" s="28">
         <f t="shared" si="98"/>
-        <v>4283.9803641421604</v>
-      </c>
-      <c r="CP42" s="29">
+        <v>4220.7927989536129</v>
+      </c>
+      <c r="CP42" s="28">
         <f t="shared" si="98"/>
-        <v>4241.1405605007385</v>
-      </c>
-      <c r="CQ42" s="29">
+        <v>4178.5848709640768</v>
+      </c>
+      <c r="CQ42" s="28">
         <f t="shared" si="98"/>
-        <v>4198.729154895731</v>
-      </c>
-      <c r="CR42" s="29">
+        <v>4136.7990222544358</v>
+      </c>
+      <c r="CR42" s="28">
         <f t="shared" si="98"/>
-        <v>4156.7418633467732</v>
-      </c>
-      <c r="CS42" s="29">
+        <v>4095.4310320318914</v>
+      </c>
+      <c r="CS42" s="28">
         <f t="shared" si="98"/>
-        <v>4115.1744447133051</v>
-      </c>
-      <c r="CT42" s="29">
+        <v>4054.4767217115723</v>
+      </c>
+      <c r="CT42" s="28">
         <f t="shared" si="98"/>
-        <v>4074.0227002661718</v>
-      </c>
-      <c r="CU42" s="29">
+        <v>4013.9319544944565</v>
+      </c>
+      <c r="CU42" s="28">
         <f t="shared" si="98"/>
-        <v>4033.2824732635099</v>
-      </c>
-      <c r="CV42" s="29">
+        <v>3973.7926349495119</v>
+      </c>
+      <c r="CV42" s="28">
         <f t="shared" si="98"/>
-        <v>3992.9496485308746</v>
-      </c>
-      <c r="CW42" s="29">
+        <v>3934.054708600017</v>
+      </c>
+      <c r="CW42" s="28">
         <f t="shared" si="98"/>
-        <v>3953.0201520455657</v>
-      </c>
-      <c r="CX42" s="29">
+        <v>3894.7141615140167</v>
+      </c>
+      <c r="CX42" s="28">
         <f t="shared" si="98"/>
-        <v>3913.4899505251101</v>
-      </c>
-      <c r="CY42" s="29">
+        <v>3855.7670198988767</v>
+      </c>
+      <c r="CY42" s="28">
         <f t="shared" si="98"/>
-        <v>3874.3550510198588</v>
-      </c>
-      <c r="CZ42" s="29">
+        <v>3817.2093496998878</v>
+      </c>
+      <c r="CZ42" s="28">
         <f t="shared" si="98"/>
-        <v>3835.6115005096603</v>
-      </c>
-      <c r="DA42" s="29">
+        <v>3779.0372562028888</v>
+      </c>
+      <c r="DA42" s="28">
         <f t="shared" si="98"/>
-        <v>3797.2553855045635</v>
-      </c>
-      <c r="DB42" s="29">
+        <v>3741.2468836408598</v>
+      </c>
+      <c r="DB42" s="28">
         <f t="shared" si="98"/>
-        <v>3759.2828316495179</v>
-      </c>
-      <c r="DC42" s="29">
+        <v>3703.8344148044512</v>
+      </c>
+      <c r="DC42" s="28">
         <f t="shared" si="98"/>
-        <v>3721.6900033330226</v>
-      </c>
-      <c r="DD42" s="29">
+        <v>3666.7960706564068</v>
+      </c>
+      <c r="DD42" s="28">
         <f t="shared" si="98"/>
-        <v>3684.4731032996924</v>
-      </c>
-      <c r="DE42" s="29">
+        <v>3630.1281099498428</v>
+      </c>
+      <c r="DE42" s="28">
         <f t="shared" si="98"/>
-        <v>3647.6283722666954</v>
-      </c>
-      <c r="DF42" s="29">
+        <v>3593.8268288503446</v>
+      </c>
+      <c r="DF42" s="28">
         <f t="shared" si="98"/>
-        <v>3611.1520885440282</v>
-      </c>
-      <c r="DG42" s="29">
+        <v>3557.8885605618411</v>
+      </c>
+      <c r="DG42" s="28">
         <f t="shared" si="98"/>
-        <v>3575.0405676585879</v>
-      </c>
-      <c r="DH42" s="29">
+        <v>3522.3096749562228</v>
+      </c>
+      <c r="DH42" s="28">
         <f t="shared" si="98"/>
-        <v>3539.2901619820018</v>
-      </c>
-      <c r="DI42" s="29">
+        <v>3487.0865782066608</v>
+      </c>
+      <c r="DI42" s="28">
         <f t="shared" si="98"/>
-        <v>3503.8972603621819</v>
-      </c>
-      <c r="DJ42" s="29">
+        <v>3452.2157124245941</v>
+      </c>
+      <c r="DJ42" s="28">
         <f t="shared" si="98"/>
-        <v>3468.85828775856</v>
-      </c>
-      <c r="DK42" s="29">
+        <v>3417.6935553003482</v>
+      </c>
+      <c r="DK42" s="28">
         <f t="shared" si="98"/>
-        <v>3434.1697048809742</v>
-      </c>
-      <c r="DL42" s="29">
+        <v>3383.5166197473445</v>
+      </c>
+      <c r="DL42" s="28">
         <f t="shared" si="98"/>
-        <v>3399.8280078321645</v>
-      </c>
-      <c r="DM42" s="29">
+        <v>3349.6814535498711</v>
+      </c>
+      <c r="DM42" s="28">
         <f t="shared" si="98"/>
-        <v>3365.8297277538427</v>
-      </c>
-      <c r="DN42" s="29">
+        <v>3316.1846390143724</v>
+      </c>
+      <c r="DN42" s="28">
         <f t="shared" si="98"/>
-        <v>3332.1714304763041</v>
-      </c>
-      <c r="DO42" s="29">
+        <v>3283.0227926242287</v>
+      </c>
+      <c r="DO42" s="28">
         <f t="shared" ref="DO42:DZ42" si="99">DN42*(1+$Y$46)</f>
-        <v>3298.8497161715409</v>
-      </c>
-      <c r="DP42" s="29">
+        <v>3250.1925646979862</v>
+      </c>
+      <c r="DP42" s="28">
         <f t="shared" si="99"/>
-        <v>3265.8612190098256</v>
-      </c>
-      <c r="DQ42" s="29">
+        <v>3217.6906390510062</v>
+      </c>
+      <c r="DQ42" s="28">
         <f t="shared" si="99"/>
-        <v>3233.2026068197274</v>
-      </c>
-      <c r="DR42" s="29">
+        <v>3185.5137326604963</v>
+      </c>
+      <c r="DR42" s="28">
         <f t="shared" si="99"/>
-        <v>3200.8705807515303</v>
-      </c>
-      <c r="DS42" s="29">
+        <v>3153.6585953338913</v>
+      </c>
+      <c r="DS42" s="28">
         <f t="shared" si="99"/>
-        <v>3168.8618749440147</v>
-      </c>
-      <c r="DT42" s="29">
+        <v>3122.1220093805523</v>
+      </c>
+      <c r="DT42" s="28">
         <f t="shared" si="99"/>
-        <v>3137.1732561945746</v>
-      </c>
-      <c r="DU42" s="29">
+        <v>3090.9007892867467</v>
+      </c>
+      <c r="DU42" s="28">
         <f t="shared" si="99"/>
-        <v>3105.8015236326287</v>
-      </c>
-      <c r="DV42" s="29">
+        <v>3059.9917813938791</v>
+      </c>
+      <c r="DV42" s="28">
         <f t="shared" si="99"/>
-        <v>3074.7435083963023</v>
-      </c>
-      <c r="DW42" s="29">
+        <v>3029.3918635799405</v>
+      </c>
+      <c r="DW42" s="28">
         <f t="shared" si="99"/>
-        <v>3043.9960733123394</v>
-      </c>
-      <c r="DX42" s="29">
+        <v>2999.0979449441411</v>
+      </c>
+      <c r="DX42" s="28">
         <f t="shared" si="99"/>
-        <v>3013.556112579216</v>
-      </c>
-      <c r="DY42" s="29">
+        <v>2969.1069654946996</v>
+      </c>
+      <c r="DY42" s="28">
         <f t="shared" si="99"/>
-        <v>2983.4205514534237</v>
-      </c>
-      <c r="DZ42" s="29">
+        <v>2939.4158958397525</v>
+      </c>
+      <c r="DZ42" s="28">
         <f t="shared" si="99"/>
-        <v>2953.5863459388893</v>
+        <v>2910.0217368813551</v>
       </c>
     </row>
     <row r="43" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <f>C42/C44</f>
         <v>1955.1782682512735</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="28">
         <v>2035.08</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="28">
         <v>2035.08</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I43" s="28">
         <v>2035.08</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="28">
         <v>2035.08</v>
       </c>
-      <c r="N43" s="29">
+      <c r="N43" s="28">
         <f>N42/N44</f>
         <v>2136.363636363636</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="28">
         <f>O42/O44</f>
         <v>2072.1649484536083</v>
       </c>
-      <c r="P43" s="29">
+      <c r="P43" s="28">
         <f>2029.312</f>
         <v>2029.3119999999999</v>
       </c>
-      <c r="Q43" s="29">
+      <c r="Q43" s="28">
         <f>J43</f>
         <v>2035.08</v>
       </c>
-      <c r="R43" s="29">
+      <c r="R43" s="28">
         <f>Q43</f>
         <v>2035.08</v>
       </c>
-      <c r="S43" s="29">
+      <c r="S43" s="28">
         <f t="shared" ref="S43:V43" si="100">R43</f>
         <v>2035.08</v>
       </c>
-      <c r="T43" s="29">
+      <c r="T43" s="28">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
-      <c r="U43" s="29">
+      <c r="U43" s="28">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43" s="28">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
     </row>
     <row r="44" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="31">
         <v>-5.89</v>
       </c>
-      <c r="D44" s="29" t="e">
+      <c r="D44" s="28" t="e">
         <f>D42/D43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="29" t="e">
+      <c r="E44" s="28" t="e">
         <f>E42/E43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="29" t="e">
+      <c r="F44" s="28" t="e">
         <f>F42/F43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="31">
         <f>G42/G43</f>
         <v>1.209289069717161</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="31">
         <f>H42/H43</f>
         <v>2.9593766584114634</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="31">
         <f t="shared" ref="I44:J44" si="101">I42/I43</f>
         <v>3.0040275147045818</v>
       </c>
-      <c r="J44" s="32">
+      <c r="J44" s="31">
         <f t="shared" si="101"/>
         <v>3.0478292749748483</v>
       </c>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="N44" s="32">
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="N44" s="31">
         <v>2.97</v>
       </c>
-      <c r="O44" s="32">
+      <c r="O44" s="31">
         <v>3.88</v>
       </c>
-      <c r="P44" s="32">
+      <c r="P44" s="31">
         <f t="shared" ref="P44:Q44" si="102">P42/P43</f>
         <v>-4.3970567364702919</v>
       </c>
-      <c r="Q44" s="32">
+      <c r="Q44" s="31">
         <f t="shared" si="102"/>
         <v>10.220522517808055</v>
       </c>
-      <c r="R44" s="32">
+      <c r="R44" s="31">
         <f t="shared" ref="R44" si="103">R42/R43</f>
-        <v>10.792674712657318</v>
-      </c>
-      <c r="S44" s="32">
+        <v>10.351449481464442</v>
+      </c>
+      <c r="S44" s="31">
         <f t="shared" ref="S44" si="104">S42/S43</f>
-        <v>11.108434308421977</v>
-      </c>
-      <c r="T44" s="32">
+        <v>10.303142138997904</v>
+      </c>
+      <c r="T44" s="31">
         <f t="shared" ref="T44" si="105">T42/T43</f>
-        <v>3.8817324563407847</v>
-      </c>
-      <c r="U44" s="32">
+        <v>6.9450513839348389</v>
+      </c>
+      <c r="U44" s="31">
         <f t="shared" ref="U44" si="106">U42/U43</f>
-        <v>4.031871162030221</v>
-      </c>
-      <c r="V44" s="32">
+        <v>3.7195251480752289</v>
+      </c>
+      <c r="V44" s="31">
         <f t="shared" ref="V44" si="107">V42/V43</f>
-        <v>4.2970179601482545</v>
+        <v>4.2336380939037914</v>
       </c>
     </row>
     <row r="45" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="R45" s="33"/>
-      <c r="X45" s="29" t="s">
+      <c r="R45" s="32"/>
+      <c r="X45" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Y45" s="33">
+      <c r="Y45" s="32">
         <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
@@ -4639,1682 +4703,1682 @@
       </c>
       <c r="R46" s="6">
         <f t="shared" si="109"/>
-        <v>1.4618829274361866E-2</v>
+        <v>-1.6148788764665523E-2</v>
       </c>
       <c r="S46" s="6">
         <f t="shared" si="109"/>
-        <v>1.9713850820864964E-2</v>
+        <v>-4.9731831846679952E-3</v>
       </c>
       <c r="T46" s="6">
         <f t="shared" si="109"/>
-        <v>-0.48897320965630753</v>
+        <v>-0.24029270211825304</v>
       </c>
       <c r="U46" s="6">
         <f t="shared" si="109"/>
-        <v>3.2118414388295102E-2</v>
+        <v>-0.29826853736304182</v>
       </c>
       <c r="V46" s="6">
         <f t="shared" si="109"/>
-        <v>4.630303598057206E-2</v>
-      </c>
-      <c r="X46" s="29" t="s">
+        <v>8.2348391769718532E-2</v>
+      </c>
+      <c r="X46" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="33">
+      <c r="Y46" s="32">
         <v>-0.01</v>
       </c>
     </row>
     <row r="47" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="32">
         <f>C31/C29-1</f>
         <v>-0.24711335861778339</v>
       </c>
-      <c r="D47" s="33" t="e">
+      <c r="D47" s="32" t="e">
         <f>D31/D29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="33" t="e">
+      <c r="E47" s="32" t="e">
         <f>E31/E29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="33" t="e">
+      <c r="F47" s="32" t="e">
         <f>F31/F29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="32">
         <f>G31/G29-1</f>
         <v>-0.27077939469690204</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H47" s="32">
         <f t="shared" ref="H47:J47" si="110">H31/H29-1</f>
         <v>-0.25</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="32">
         <f t="shared" si="110"/>
         <v>-0.25000000000000011</v>
       </c>
-      <c r="J47" s="33">
+      <c r="J47" s="32">
         <f t="shared" si="110"/>
         <v>-0.25</v>
       </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="N47" s="33">
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="N47" s="32">
         <f t="shared" ref="N47:V47" si="111">N31/N29</f>
         <v>0.78038952316991272</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="32">
         <f t="shared" si="111"/>
         <v>0.76240945651690883</v>
       </c>
-      <c r="P47" s="33">
+      <c r="P47" s="32">
         <f t="shared" si="111"/>
         <v>0.71080745341614904</v>
       </c>
-      <c r="Q47" s="33">
+      <c r="Q47" s="32">
         <f t="shared" si="111"/>
         <v>0.74521487827538124</v>
       </c>
-      <c r="R47" s="33">
+      <c r="R47" s="32">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="S47" s="33">
+      <c r="S47" s="32">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="T47" s="33">
+      <c r="T47" s="32">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="U47" s="33">
+      <c r="U47" s="32">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="V47" s="33">
+      <c r="V47" s="32">
         <f t="shared" si="111"/>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="X47" s="29" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="X47" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="Y47" s="33">
-        <v>0.08</v>
+      <c r="Y47" s="32">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="32">
         <f>G32/C32-1</f>
         <v>-0.33079847908745252</v>
       </c>
-      <c r="H48" s="33" t="e">
+      <c r="H48" s="32" t="e">
         <f t="shared" ref="H48:J48" si="112">H32/D32-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="33" t="e">
+      <c r="I48" s="32" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="33" t="e">
+      <c r="J48" s="32" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="O48" s="33">
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="O48" s="32">
         <f t="shared" ref="O48:V48" si="113">O32/N32-1</f>
         <v>-5.3749680061427885E-3</v>
       </c>
-      <c r="P48" s="33">
+      <c r="P48" s="32">
         <f t="shared" si="113"/>
         <v>8.2604220277920692E-2</v>
       </c>
-      <c r="Q48" s="33">
+      <c r="Q48" s="32">
         <f t="shared" si="113"/>
         <v>4.4830045162823851E-2</v>
       </c>
-      <c r="R48" s="33">
+      <c r="R48" s="32">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S48" s="33">
+      <c r="S48" s="32">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T48" s="33">
+      <c r="T48" s="32">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="U48" s="33">
+      <c r="U48" s="32">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="V48" s="33">
+      <c r="V48" s="32">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="X48" s="29" t="s">
+      <c r="X48" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="Y48" s="29">
+      <c r="Y48" s="28">
         <f>NPV(Y47,Q42:XFD42)+Main!L5-Main!L6+golcadomide!E42+'BMS-986365'!G21+admilparant!G18</f>
-        <v>104952.78625217403</v>
+        <v>119308.34699429834</v>
       </c>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="X49" s="29" t="s">
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="X49" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="Y49" s="32">
+      <c r="Y49" s="31">
         <f>Y48/Main!L3</f>
-        <v>51.571823344622345</v>
+        <v>58.625875638450744</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="28">
         <f>SUM(G51:G52)-SUM(G66:G68)</f>
         <v>-39127</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="28">
         <f>G50+H42</f>
         <v>-33104.431750000003</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="28">
         <f t="shared" ref="I50:J50" si="114">H50+I42</f>
         <v>-26990.995435375004</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="28">
         <f t="shared" si="114"/>
         <v>-20788.419034459192</v>
       </c>
-      <c r="N50" s="29">
+      <c r="N50" s="28">
         <f>SUM(N51:N52)-SUM(N66:N68)</f>
         <v>0</v>
       </c>
-      <c r="O50" s="29">
+      <c r="O50" s="28">
         <f>SUM(O51:O52)-SUM(O67:O68)</f>
         <v>-30794</v>
       </c>
-      <c r="P50" s="29">
+      <c r="P50" s="28">
         <f>SUM(P51:P52)-SUM(P67:P68)</f>
         <v>-41113</v>
       </c>
-      <c r="Q50" s="29">
+      <c r="Q50" s="28">
         <f>J50</f>
         <v>-20788.419034459192</v>
       </c>
-      <c r="R50" s="29">
+      <c r="R50" s="28">
         <f>Q50+R42</f>
-        <v>1175.5374197754609</v>
-      </c>
-      <c r="S50" s="29">
+        <v>277.6087762794632</v>
+      </c>
+      <c r="S50" s="28">
         <f>R50+S42</f>
-        <v>23782.089912158855</v>
-      </c>
-      <c r="T50" s="29">
+        <v>21245.327280511316</v>
+      </c>
+      <c r="T50" s="28">
         <f>S50+T42</f>
-        <v>31681.72599940886</v>
-      </c>
-      <c r="U50" s="29">
+        <v>35379.062450929428</v>
+      </c>
+      <c r="U50" s="28">
         <f>T50+U42</f>
-        <v>39886.906363833317</v>
-      </c>
-      <c r="V50" s="29">
+        <v>42948.593689274363</v>
+      </c>
+      <c r="V50" s="28">
         <f>U50+V42</f>
-        <v>48631.681674171828</v>
-      </c>
-      <c r="Y50" s="33">
+        <v>51564.385901416092</v>
+      </c>
+      <c r="Y50" s="32">
         <f>Y49/Main!L2-1</f>
-        <v>0.17208689419596235</v>
+        <v>0.33240626451024413</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="28">
         <f>10875</f>
         <v>10875</v>
       </c>
-      <c r="O51" s="29">
+      <c r="O51" s="28">
         <f>11464</f>
         <v>11464</v>
       </c>
-      <c r="P51" s="29">
+      <c r="P51" s="28">
         <f>10346</f>
         <v>10346</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G52" s="28">
         <f>907</f>
         <v>907</v>
       </c>
-      <c r="O52" s="29">
+      <c r="O52" s="28">
         <f>816</f>
         <v>816</v>
       </c>
-      <c r="P52" s="29">
+      <c r="P52" s="28">
         <f>513</f>
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="28">
         <v>10801</v>
       </c>
-      <c r="O53" s="29">
+      <c r="O53" s="28">
         <f>10921</f>
         <v>10921</v>
       </c>
-      <c r="P53" s="29">
+      <c r="P53" s="28">
         <f>10747</f>
         <v>10747</v>
       </c>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G54" s="28">
         <v>2666</v>
       </c>
-      <c r="O54" s="29">
+      <c r="O54" s="28">
         <f>2662</f>
         <v>2662</v>
       </c>
-      <c r="P54" s="29">
+      <c r="P54" s="28">
         <f>2557</f>
         <v>2557</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="28">
         <v>7213</v>
       </c>
-      <c r="O55" s="29">
+      <c r="O55" s="28">
         <f>6646</f>
         <v>6646</v>
       </c>
-      <c r="P55" s="29">
+      <c r="P55" s="28">
         <f>7136</f>
         <v>7136</v>
       </c>
-      <c r="W55" s="33"/>
+      <c r="W55" s="32"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="28">
         <v>21737</v>
       </c>
-      <c r="O56" s="29">
+      <c r="O56" s="28">
         <f>21169</f>
         <v>21169</v>
       </c>
-      <c r="P56" s="29">
+      <c r="P56" s="28">
         <f>21719</f>
         <v>21719</v>
       </c>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="28">
         <v>22486</v>
       </c>
-      <c r="O57" s="29">
+      <c r="O57" s="28">
         <f>27072</f>
         <v>27072</v>
       </c>
-      <c r="P57" s="29">
+      <c r="P57" s="28">
         <f>23307</f>
         <v>23307</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="29">
+      <c r="O58" s="28">
         <f>2768</f>
         <v>2768</v>
       </c>
-      <c r="P58" s="29">
+      <c r="P58" s="28">
         <f>4236</f>
         <v>4236</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="28">
         <f>344</f>
         <v>344</v>
       </c>
-      <c r="O59" s="29">
+      <c r="O59" s="28">
         <f>364</f>
         <v>364</v>
       </c>
-      <c r="P59" s="29">
+      <c r="P59" s="28">
         <f>320</f>
         <v>320</v>
       </c>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="28">
         <f>5534+5866</f>
         <v>11400</v>
       </c>
-      <c r="O60" s="29">
+      <c r="O60" s="28">
         <f>5370+5907</f>
         <v>11277</v>
       </c>
-      <c r="P60" s="29">
+      <c r="P60" s="28">
         <f>6105+5617</f>
         <v>11722</v>
       </c>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G61" s="29">
+      <c r="G61" s="28">
         <f>SUM(G51:G60)</f>
         <v>88429</v>
       </c>
-      <c r="H61" s="29">
+      <c r="H61" s="28">
         <f>SUM(H51:H60)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="29">
+      <c r="I61" s="28">
         <f>SUM(I51:I60)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="29">
+      <c r="J61" s="28">
         <f>SUM(J51:J60)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="29">
+      <c r="N61" s="28">
         <f>SUM(N51:N60)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="29">
+      <c r="O61" s="28">
         <f>SUM(O51:O60)</f>
         <v>95159</v>
       </c>
-      <c r="P61" s="29">
+      <c r="P61" s="28">
         <f>SUM(P51:P60)</f>
         <v>92603</v>
       </c>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G63" s="29">
+      <c r="G63" s="28">
         <f>3554</f>
         <v>3554</v>
       </c>
-      <c r="O63" s="29">
+      <c r="O63" s="28">
         <f>3119</f>
         <v>3119</v>
       </c>
-      <c r="P63" s="29">
+      <c r="P63" s="28">
         <f>2046</f>
         <v>2046</v>
       </c>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="28">
         <f>4002</f>
         <v>4002</v>
       </c>
-      <c r="O64" s="29">
+      <c r="O64" s="28">
         <f>3259</f>
         <v>3259</v>
       </c>
-      <c r="P64" s="29">
+      <c r="P64" s="28">
         <f>3602</f>
         <v>3602</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G65" s="29">
+      <c r="G65" s="28">
         <f>16514</f>
         <v>16514</v>
       </c>
-      <c r="O65" s="29">
+      <c r="O65" s="28">
         <f>15884</f>
         <v>15884</v>
       </c>
-      <c r="P65" s="29">
+      <c r="P65" s="28">
         <f>18126</f>
         <v>18126</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="29">
+      <c r="G66" s="28">
         <f>276</f>
         <v>276</v>
       </c>
-      <c r="O66" s="29">
+      <c r="O66" s="28">
         <f>338</f>
         <v>338</v>
       </c>
-      <c r="P66" s="29">
+      <c r="P66" s="28">
         <f>369</f>
         <v>369</v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="28">
         <f>46156</f>
         <v>46156</v>
       </c>
-      <c r="O67" s="29">
+      <c r="O67" s="28">
         <f>36653</f>
         <v>36653</v>
       </c>
-      <c r="P67" s="29">
+      <c r="P67" s="28">
         <f>47503</f>
         <v>47503</v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="29">
+      <c r="G68" s="28">
         <f>4477</f>
         <v>4477</v>
       </c>
-      <c r="O68" s="29">
+      <c r="O68" s="28">
         <f>6421</f>
         <v>6421</v>
       </c>
-      <c r="P68" s="29">
+      <c r="P68" s="28">
         <f>4469</f>
         <v>4469</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="29">
+      <c r="G69" s="28">
         <f>SUM(G63:G68)</f>
         <v>74979</v>
       </c>
-      <c r="O69" s="29">
+      <c r="O69" s="28">
         <f>SUM(O63:O68)</f>
         <v>65674</v>
       </c>
-      <c r="P69" s="29">
+      <c r="P69" s="28">
         <f>SUM(P63:P68)</f>
         <v>76115</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G70" s="29">
+      <c r="G70" s="28">
         <f>G61-G69</f>
         <v>13450</v>
       </c>
-      <c r="O70" s="29">
+      <c r="O70" s="28">
         <f>O61-O69</f>
         <v>29485</v>
       </c>
-      <c r="P70" s="29">
+      <c r="P70" s="28">
         <f>P61-P69</f>
         <v>16488</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="29">
+      <c r="G71" s="28">
         <f>G69+G70</f>
         <v>88429</v>
       </c>
-      <c r="O71" s="29">
+      <c r="O71" s="28">
         <f>O69+O70</f>
         <v>95159</v>
       </c>
-      <c r="P71" s="29">
+      <c r="P71" s="28">
         <f>P69+P70</f>
         <v>92603</v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="O73" s="29">
+      <c r="O73" s="28">
         <f>O42</f>
         <v>8040</v>
       </c>
-      <c r="P73" s="29">
+      <c r="P73" s="28">
         <f>P42</f>
         <v>-8923</v>
       </c>
-      <c r="Q73" s="29">
+      <c r="Q73" s="28">
         <f t="shared" ref="Q73:V73" si="115">Q42</f>
         <v>20799.580965540816</v>
       </c>
-      <c r="R73" s="29">
+      <c r="R73" s="28">
         <f t="shared" si="115"/>
-        <v>21963.956454234652</v>
-      </c>
-      <c r="S73" s="29">
+        <v>21066.027810738655</v>
+      </c>
+      <c r="S73" s="28">
         <f t="shared" si="115"/>
-        <v>22606.552492383395</v>
-      </c>
-      <c r="T73" s="29">
+        <v>20967.718504231852</v>
+      </c>
+      <c r="T73" s="28">
         <f t="shared" si="115"/>
-        <v>7899.6360872500036</v>
-      </c>
-      <c r="U73" s="29">
+        <v>14133.735170418111</v>
+      </c>
+      <c r="U73" s="28">
         <f t="shared" si="115"/>
-        <v>8205.180364424461</v>
-      </c>
-      <c r="V73" s="29">
+        <v>7569.5312383449364</v>
+      </c>
+      <c r="V73" s="28">
         <f t="shared" si="115"/>
-        <v>8744.7753103385094</v>
+        <v>8615.7922121417268</v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="N74" s="29">
+      <c r="N74" s="28">
         <f>6345</f>
         <v>6345</v>
       </c>
-      <c r="O74" s="29">
+      <c r="O74" s="28">
         <f>8040</f>
         <v>8040</v>
       </c>
-      <c r="P74" s="29">
+      <c r="P74" s="28">
         <f>-8933</f>
         <v>-8933</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="N75" s="29">
+      <c r="N75" s="28">
         <f>10276</f>
         <v>10276</v>
       </c>
-      <c r="O75" s="29">
+      <c r="O75" s="28">
         <v>9760</v>
       </c>
-      <c r="P75" s="29">
+      <c r="P75" s="28">
         <v>9600</v>
       </c>
-      <c r="Q75" s="29">
+      <c r="Q75" s="28">
         <f>P75*1.01</f>
         <v>9696</v>
       </c>
-      <c r="R75" s="29">
+      <c r="R75" s="28">
         <f t="shared" ref="R75:V75" si="116">Q75*1.01</f>
         <v>9792.9600000000009</v>
       </c>
-      <c r="S75" s="29">
+      <c r="S75" s="28">
         <f t="shared" si="116"/>
         <v>9890.8896000000004</v>
       </c>
-      <c r="T75" s="29">
+      <c r="T75" s="28">
         <f t="shared" si="116"/>
         <v>9989.7984960000013</v>
       </c>
-      <c r="U75" s="29">
+      <c r="U75" s="28">
         <f t="shared" si="116"/>
         <v>10089.696480960001</v>
       </c>
-      <c r="V75" s="29">
+      <c r="V75" s="28">
         <f t="shared" si="116"/>
         <v>10190.593445769602</v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="29">
+      <c r="N76" s="28">
         <v>-2738</v>
       </c>
-      <c r="O76" s="29">
+      <c r="O76" s="28">
         <v>-3288</v>
       </c>
-      <c r="P76" s="29">
+      <c r="P76" s="28">
         <v>-2089</v>
       </c>
-      <c r="Q76" s="29">
+      <c r="Q76" s="28">
         <f>P76*1.04</f>
         <v>-2172.56</v>
       </c>
-      <c r="R76" s="29">
+      <c r="R76" s="28">
         <f t="shared" ref="R76:V76" si="117">Q76*1.04</f>
         <v>-2259.4623999999999</v>
       </c>
-      <c r="S76" s="29">
+      <c r="S76" s="28">
         <f t="shared" si="117"/>
         <v>-2349.8408960000002</v>
       </c>
-      <c r="T76" s="29">
+      <c r="T76" s="28">
         <f t="shared" si="117"/>
         <v>-2443.8345318400002</v>
       </c>
-      <c r="U76" s="29">
+      <c r="U76" s="28">
         <f t="shared" si="117"/>
         <v>-2541.5879131136003</v>
       </c>
-      <c r="V76" s="29">
+      <c r="V76" s="28">
         <f t="shared" si="117"/>
         <v>-2643.2514296381446</v>
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="N77" s="29">
+      <c r="N77" s="28">
         <v>457</v>
       </c>
-      <c r="O77" s="29">
+      <c r="O77" s="28">
         <v>518</v>
       </c>
-      <c r="P77" s="29">
+      <c r="P77" s="28">
         <v>507</v>
       </c>
-      <c r="Q77" s="29">
+      <c r="Q77" s="28">
         <f>P77*1.02</f>
         <v>517.14</v>
       </c>
-      <c r="R77" s="29">
+      <c r="R77" s="28">
         <f t="shared" ref="R77:V77" si="118">Q77*1.02</f>
         <v>527.4828</v>
       </c>
-      <c r="S77" s="29">
+      <c r="S77" s="28">
         <f t="shared" si="118"/>
         <v>538.03245600000002</v>
       </c>
-      <c r="T77" s="29">
+      <c r="T77" s="28">
         <f t="shared" si="118"/>
         <v>548.79310512000006</v>
       </c>
-      <c r="U77" s="29">
+      <c r="U77" s="28">
         <f t="shared" si="118"/>
         <v>559.76896722240008</v>
       </c>
-      <c r="V77" s="29">
+      <c r="V77" s="28">
         <f t="shared" si="118"/>
         <v>570.96434656684812</v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="N78" s="29">
+      <c r="N78" s="28">
         <v>179</v>
       </c>
-      <c r="O78" s="29">
+      <c r="O78" s="28">
         <v>255</v>
       </c>
-      <c r="P78" s="29">
+      <c r="P78" s="28">
         <v>2963</v>
       </c>
-      <c r="Q78" s="29">
-        <v>0</v>
-      </c>
-      <c r="R78" s="29">
+      <c r="Q78" s="28">
+        <v>0</v>
+      </c>
+      <c r="R78" s="28">
         <f t="shared" ref="R78:V84" si="119">Q78*1.01</f>
         <v>0</v>
       </c>
-      <c r="S78" s="29">
+      <c r="S78" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T78" s="29">
+      <c r="T78" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U78" s="29">
+      <c r="U78" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V78" s="29">
+      <c r="V78" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="N79" s="29">
+      <c r="N79" s="28">
         <v>-1063</v>
       </c>
-      <c r="O79" s="29">
+      <c r="O79" s="28">
         <v>-884</v>
       </c>
-      <c r="P79" s="29">
+      <c r="P79" s="28">
         <v>-1119</v>
       </c>
-      <c r="Q79" s="29">
-        <v>0</v>
-      </c>
-      <c r="R79" s="29">
+      <c r="Q79" s="28">
+        <v>0</v>
+      </c>
+      <c r="R79" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S79" s="29">
+      <c r="S79" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T79" s="29">
+      <c r="T79" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U79" s="29">
+      <c r="U79" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V79" s="29">
+      <c r="V79" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N80" s="29">
+      <c r="N80" s="28">
         <v>815</v>
       </c>
-      <c r="O80" s="29">
+      <c r="O80" s="28">
         <v>913</v>
       </c>
-      <c r="P80" s="29">
+      <c r="P80" s="28">
         <v>13373</v>
       </c>
-      <c r="Q80" s="29">
-        <v>0</v>
-      </c>
-      <c r="R80" s="29">
+      <c r="Q80" s="28">
+        <v>0</v>
+      </c>
+      <c r="R80" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S80" s="29">
+      <c r="S80" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T80" s="29">
+      <c r="T80" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U80" s="29">
+      <c r="U80" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V80" s="29">
+      <c r="V80" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="N81" s="29">
+      <c r="N81" s="28">
         <v>801</v>
       </c>
-      <c r="O81" s="29">
+      <c r="O81" s="28">
         <v>160</v>
       </c>
-      <c r="P81" s="29">
+      <c r="P81" s="28">
         <v>-16</v>
       </c>
-      <c r="Q81" s="29">
-        <v>0</v>
-      </c>
-      <c r="R81" s="29">
+      <c r="Q81" s="28">
+        <v>0</v>
+      </c>
+      <c r="R81" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S81" s="29">
+      <c r="S81" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T81" s="29">
+      <c r="T81" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U81" s="29">
+      <c r="U81" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V81" s="29">
+      <c r="V81" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="29">
+      <c r="N82" s="28">
         <v>-663</v>
       </c>
-      <c r="O82" s="29">
+      <c r="O82" s="28">
         <v>-995</v>
       </c>
-      <c r="P82" s="29">
+      <c r="P82" s="28">
         <v>264</v>
       </c>
-      <c r="Q82" s="29">
-        <v>0</v>
-      </c>
-      <c r="R82" s="29">
+      <c r="Q82" s="28">
+        <v>0</v>
+      </c>
+      <c r="R82" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S82" s="29">
+      <c r="S82" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T82" s="29">
+      <c r="T82" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U82" s="29">
+      <c r="U82" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V82" s="29">
+      <c r="V82" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="N83" s="29">
+      <c r="N83" s="28">
         <v>-69</v>
       </c>
-      <c r="O83" s="29">
+      <c r="O83" s="28">
         <v>-751</v>
       </c>
-      <c r="P83" s="29">
+      <c r="P83" s="28">
         <v>-486</v>
       </c>
-      <c r="Q83" s="29">
-        <v>0</v>
-      </c>
-      <c r="R83" s="29">
+      <c r="Q83" s="28">
+        <v>0</v>
+      </c>
+      <c r="R83" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S83" s="29">
+      <c r="S83" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T83" s="29">
+      <c r="T83" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U83" s="29">
+      <c r="U83" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V83" s="29">
+      <c r="V83" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N84" s="29">
+      <c r="N84" s="28">
         <v>109</v>
       </c>
-      <c r="O84" s="29">
+      <c r="O84" s="28">
         <v>198</v>
       </c>
-      <c r="P84" s="29">
+      <c r="P84" s="28">
         <v>184</v>
       </c>
-      <c r="Q84" s="29">
-        <v>0</v>
-      </c>
-      <c r="R84" s="29">
+      <c r="Q84" s="28">
+        <v>0</v>
+      </c>
+      <c r="R84" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S84" s="29">
+      <c r="S84" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T84" s="29">
+      <c r="T84" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U84" s="29">
+      <c r="U84" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V84" s="29">
+      <c r="V84" s="28">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="N85" s="29">
+      <c r="N85" s="28">
         <v>427</v>
       </c>
-      <c r="O85" s="29">
+      <c r="O85" s="28">
         <v>904</v>
       </c>
-      <c r="P85" s="29">
+      <c r="P85" s="28">
         <v>1484</v>
       </c>
-      <c r="Q85" s="29">
-        <v>0</v>
-      </c>
-      <c r="R85" s="29">
+      <c r="Q85" s="28">
+        <v>0</v>
+      </c>
+      <c r="R85" s="28">
         <f t="shared" ref="R85:V85" si="120">Q85*1.04</f>
         <v>0</v>
       </c>
-      <c r="S85" s="29">
+      <c r="S85" s="28">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="T85" s="29">
+      <c r="T85" s="28">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="U85" s="29">
+      <c r="U85" s="28">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="V85" s="29">
+      <c r="V85" s="28">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N86" s="29">
+      <c r="N86" s="28">
         <v>-1423</v>
       </c>
-      <c r="O86" s="29">
+      <c r="O86" s="28">
         <v>-603</v>
       </c>
-      <c r="P86" s="29">
+      <c r="P86" s="28">
         <v>-1260</v>
       </c>
-      <c r="Q86" s="29">
+      <c r="Q86" s="28">
         <f>P86*1.01</f>
         <v>-1272.5999999999999</v>
       </c>
-      <c r="R86" s="29">
+      <c r="R86" s="28">
         <f t="shared" ref="R86:V86" si="121">Q86*1.01</f>
         <v>-1285.326</v>
       </c>
-      <c r="S86" s="29">
+      <c r="S86" s="28">
         <f t="shared" si="121"/>
         <v>-1298.1792600000001</v>
       </c>
-      <c r="T86" s="29">
+      <c r="T86" s="28">
         <f t="shared" si="121"/>
         <v>-1311.1610526000002</v>
       </c>
-      <c r="U86" s="29">
+      <c r="U86" s="28">
         <f t="shared" si="121"/>
         <v>-1324.2726631260002</v>
       </c>
-      <c r="V86" s="29">
+      <c r="V86" s="28">
         <f t="shared" si="121"/>
         <v>-1337.5153897572602</v>
       </c>
     </row>
     <row r="87" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="N87" s="29">
+      <c r="N87" s="28">
         <f>233-610</f>
         <v>-377</v>
       </c>
-      <c r="O87" s="29">
+      <c r="O87" s="28">
         <f>300-667</f>
         <v>-367</v>
       </c>
-      <c r="P87" s="29">
+      <c r="P87" s="28">
         <f>94+624</f>
         <v>718</v>
       </c>
-      <c r="Q87" s="29">
-        <v>0</v>
-      </c>
-      <c r="R87" s="29">
+      <c r="Q87" s="28">
+        <v>0</v>
+      </c>
+      <c r="R87" s="28">
         <f t="shared" ref="R87:V87" si="122">Q87*1.01</f>
         <v>0</v>
       </c>
-      <c r="S87" s="29">
+      <c r="S87" s="28">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="T87" s="29">
+      <c r="T87" s="28">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="U87" s="29">
+      <c r="U87" s="28">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="V87" s="29">
+      <c r="V87" s="28">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="N88" s="29">
+      <c r="N88" s="28">
         <f>SUM(N74:N87)</f>
         <v>13076</v>
       </c>
-      <c r="O88" s="29">
+      <c r="O88" s="28">
         <f t="shared" ref="O88:P88" si="123">SUM(O74:O87)</f>
         <v>13860</v>
       </c>
-      <c r="P88" s="29">
+      <c r="P88" s="28">
         <f t="shared" si="123"/>
         <v>15190</v>
       </c>
-      <c r="Q88" s="29">
+      <c r="Q88" s="28">
         <f>SUM(Q73:Q87)</f>
         <v>27567.560965540815</v>
       </c>
-      <c r="R88" s="29">
+      <c r="R88" s="28">
         <f t="shared" ref="R88:V88" si="124">SUM(R73:R87)</f>
-        <v>28739.610854234656</v>
-      </c>
-      <c r="S88" s="29">
+        <v>27841.682210738654</v>
+      </c>
+      <c r="S88" s="28">
         <f t="shared" si="124"/>
-        <v>29387.454392383395</v>
-      </c>
-      <c r="T88" s="29">
+        <v>27748.620404231853</v>
+      </c>
+      <c r="T88" s="28">
         <f t="shared" si="124"/>
-        <v>14683.232103930002</v>
-      </c>
-      <c r="U88" s="29">
+        <v>20917.331187098112</v>
+      </c>
+      <c r="U88" s="28">
         <f t="shared" si="124"/>
-        <v>14988.785236367261</v>
-      </c>
-      <c r="V88" s="29">
+        <v>14353.136110287738</v>
+      </c>
+      <c r="V88" s="28">
         <f t="shared" si="124"/>
-        <v>15525.566283279553</v>
+        <v>15396.583185082771</v>
       </c>
     </row>
     <row r="90" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="91" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="N91" s="29">
+      <c r="N91" s="28">
         <v>-1118</v>
       </c>
-      <c r="O91" s="29">
+      <c r="O91" s="28">
         <v>-1209</v>
       </c>
-      <c r="P91" s="29">
+      <c r="P91" s="28">
         <v>-1248</v>
       </c>
-      <c r="Q91" s="29">
+      <c r="Q91" s="28">
         <f>P91*1.05</f>
         <v>-1310.4000000000001</v>
       </c>
-      <c r="R91" s="29">
+      <c r="R91" s="28">
         <f t="shared" ref="R91:V91" si="125">Q91*1.05</f>
         <v>-1375.92</v>
       </c>
-      <c r="S91" s="29">
+      <c r="S91" s="28">
         <f t="shared" si="125"/>
         <v>-1444.7160000000001</v>
       </c>
-      <c r="T91" s="29">
+      <c r="T91" s="28">
         <f t="shared" si="125"/>
         <v>-1516.9518000000003</v>
       </c>
-      <c r="U91" s="29">
+      <c r="U91" s="28">
         <f t="shared" si="125"/>
         <v>-1592.7993900000004</v>
       </c>
-      <c r="V91" s="29">
+      <c r="V91" s="28">
         <f t="shared" si="125"/>
         <v>-1672.4393595000004</v>
       </c>
     </row>
     <row r="92" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="33"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
     </row>
     <row r="93" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="28" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="95" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="N95" s="29">
+      <c r="N95" s="28">
         <f>N88+N91</f>
         <v>11958</v>
       </c>
-      <c r="O95" s="29">
+      <c r="O95" s="28">
         <f t="shared" ref="O95:V95" si="126">O88+O91</f>
         <v>12651</v>
       </c>
-      <c r="P95" s="29">
+      <c r="P95" s="28">
         <f t="shared" si="126"/>
         <v>13942</v>
       </c>
-      <c r="Q95" s="29">
+      <c r="Q95" s="28">
         <f t="shared" si="126"/>
         <v>26257.160965540814</v>
       </c>
-      <c r="R95" s="29">
+      <c r="R95" s="28">
         <f t="shared" si="126"/>
-        <v>27363.690854234657</v>
-      </c>
-      <c r="S95" s="29">
+        <v>26465.762210738656</v>
+      </c>
+      <c r="S95" s="28">
         <f t="shared" si="126"/>
-        <v>27942.738392383395</v>
-      </c>
-      <c r="T95" s="29">
+        <v>26303.904404231853</v>
+      </c>
+      <c r="T95" s="28">
         <f t="shared" si="126"/>
-        <v>13166.280303930002</v>
-      </c>
-      <c r="U95" s="29">
+        <v>19400.379387098114</v>
+      </c>
+      <c r="U95" s="28">
         <f t="shared" si="126"/>
-        <v>13395.985846367261</v>
-      </c>
-      <c r="V95" s="29">
+        <v>12760.336720287738</v>
+      </c>
+      <c r="V95" s="28">
         <f t="shared" si="126"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="W95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="W95" s="28">
         <f t="shared" ref="W95:BB95" si="127">V95*(1+$X$97)</f>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="X95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="X95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="Y95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="Y95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="Z95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="Z95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AA95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AA95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AB95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AB95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AC95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AC95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AD95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AD95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AE95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AE95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AF95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AF95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AG95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AG95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AH95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AH95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AI95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AI95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AJ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AJ95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AK95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AK95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AL95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AL95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AM95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AM95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AN95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AN95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AO95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AO95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AP95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AP95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AQ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AQ95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AR95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AR95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AS95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AS95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AT95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AT95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AU95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AU95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AV95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AV95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AW95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AW95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AX95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AX95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AY95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AY95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="AZ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="AZ95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BA95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BA95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BB95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BB95" s="28">
         <f t="shared" si="127"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BC95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BC95" s="28">
         <f t="shared" ref="BC95:CH95" si="128">BB95*(1+$X$97)</f>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BD95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BD95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BE95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BE95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BF95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BF95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BG95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BG95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BH95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BH95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BI95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BI95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BJ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BJ95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BK95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BK95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BL95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BL95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BM95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BM95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BN95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BN95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BO95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BO95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BP95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BP95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BQ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BQ95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BR95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BR95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BS95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BS95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BT95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BT95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BU95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BU95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BV95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BV95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BW95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BW95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BX95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BX95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BY95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BY95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="BZ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="BZ95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CA95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CA95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CB95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CB95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CC95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CC95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CD95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CD95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CE95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CE95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CF95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CF95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CG95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CG95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CH95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CH95" s="28">
         <f t="shared" si="128"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CI95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CI95" s="28">
         <f t="shared" ref="CI95:DQ95" si="129">CH95*(1+$X$97)</f>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CJ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CJ95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CK95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CK95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CL95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CL95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CM95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CM95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CN95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CN95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CO95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CO95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CP95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CP95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CQ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CQ95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CR95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CR95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CS95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CS95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CT95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CT95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CU95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CU95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CV95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CV95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CW95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CW95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CX95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CX95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CY95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CY95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="CZ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="CZ95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DA95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DA95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DB95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DB95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DC95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DC95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DD95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DD95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DE95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DE95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DF95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DF95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DG95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DG95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DH95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DH95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DI95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DI95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DJ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DJ95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DK95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DK95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DL95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DL95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DM95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DM95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DN95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DN95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DO95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DO95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DP95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DP95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
-      </c>
-      <c r="DQ95" s="29">
+        <v>13724.143825582771</v>
+      </c>
+      <c r="DQ95" s="28">
         <f t="shared" si="129"/>
-        <v>13853.126923779553</v>
+        <v>13724.143825582771</v>
       </c>
     </row>
     <row r="97" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="O97" s="33"/>
-      <c r="X97" s="33"/>
+      <c r="O97" s="32"/>
+      <c r="X97" s="32"/>
     </row>
     <row r="98" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X98" s="33"/>
+      <c r="X98" s="32"/>
     </row>
     <row r="100" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X100" s="32"/>
+      <c r="X100" s="31"/>
     </row>
     <row r="101" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X101" s="33"/>
+      <c r="X101" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6344,7 +6408,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6381,7 +6445,7 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6404,16 +6468,16 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -6707,9 +6771,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="4">
